--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -5387,28 +5387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.816974898566</v>
+        <v>168.3185253935794</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.3578004106441</v>
+        <v>230.3008321326525</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.1447050732655</v>
+        <v>208.3212439432266</v>
       </c>
       <c r="AD2" t="n">
-        <v>131816.974898566</v>
+        <v>168318.5253935794</v>
       </c>
       <c r="AE2" t="n">
-        <v>180357.8004106441</v>
+        <v>230300.8321326525</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.50237309113132e-06</v>
+        <v>4.630045375975669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.07421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>163144.7050732655</v>
+        <v>208321.2439432266</v>
       </c>
     </row>
     <row r="3">
@@ -5493,28 +5493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.2309338747495</v>
+        <v>149.8177357157835</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.927559123611</v>
+        <v>204.9872354982686</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.1414903230909</v>
+        <v>185.4235414437642</v>
       </c>
       <c r="AD3" t="n">
-        <v>113230.9338747495</v>
+        <v>149817.7357157835</v>
       </c>
       <c r="AE3" t="n">
-        <v>154927.559123611</v>
+        <v>204987.2354982686</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.711326274335845e-06</v>
+        <v>5.016663471862451e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.60546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>140141.4903230909</v>
+        <v>185423.5414437642</v>
       </c>
     </row>
     <row r="4">
@@ -5599,28 +5599,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.3011723307418</v>
+        <v>145.7173819711836</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.5506860102588</v>
+        <v>199.3769506100696</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.2777784331865</v>
+        <v>180.3486942712088</v>
       </c>
       <c r="AD4" t="n">
-        <v>109301.1723307418</v>
+        <v>145717.3819711836</v>
       </c>
       <c r="AE4" t="n">
-        <v>149550.6860102588</v>
+        <v>199376.9506100696</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.849904809711769e-06</v>
+        <v>5.27307004416806e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.332031249999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>135277.7784331865</v>
+        <v>180348.6942712088</v>
       </c>
     </row>
     <row r="5">
@@ -5705,28 +5705,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>105.908628059452</v>
+        <v>130.299918795359</v>
       </c>
       <c r="AB5" t="n">
-        <v>144.9088572697922</v>
+        <v>178.2820973224457</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.078959312861</v>
+        <v>161.2671041745365</v>
       </c>
       <c r="AD5" t="n">
-        <v>105908.628059452</v>
+        <v>130299.918795359</v>
       </c>
       <c r="AE5" t="n">
-        <v>144908.8572697922</v>
+        <v>178282.0973224457</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.983464920781507e-06</v>
+        <v>5.520191217611332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.091145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>131078.959312861</v>
+        <v>161267.1041745364</v>
       </c>
     </row>
     <row r="6">
@@ -5811,28 +5811,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>90.77709859806335</v>
+        <v>127.2785595845258</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.2052311047645</v>
+        <v>174.1481403572246</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.3512581712952</v>
+        <v>157.5276862600297</v>
       </c>
       <c r="AD6" t="n">
-        <v>90777.09859806334</v>
+        <v>127278.5595845257</v>
       </c>
       <c r="AE6" t="n">
-        <v>124205.2311047645</v>
+        <v>174148.1403572246</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.086937827522533e-06</v>
+        <v>5.711643185782255e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>112351.2581712952</v>
+        <v>157527.6862600297</v>
       </c>
     </row>
     <row r="7">
@@ -5917,28 +5917,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>89.90674939441378</v>
+        <v>126.4082103808762</v>
       </c>
       <c r="AB7" t="n">
-        <v>123.0143809272349</v>
+        <v>172.957290179695</v>
       </c>
       <c r="AC7" t="n">
-        <v>111.2740610633398</v>
+        <v>156.4504891520744</v>
       </c>
       <c r="AD7" t="n">
-        <v>89906.74939441378</v>
+        <v>126408.2103808762</v>
       </c>
       <c r="AE7" t="n">
-        <v>123014.3809272349</v>
+        <v>172957.2901796949</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.112776877322288e-06</v>
+        <v>5.759452192947879e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.8828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>111274.0610633398</v>
+        <v>156450.4891520744</v>
       </c>
     </row>
     <row r="8">
@@ -6023,28 +6023,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>89.23775787190358</v>
+        <v>125.739218858366</v>
       </c>
       <c r="AB8" t="n">
-        <v>122.0990372123138</v>
+        <v>172.0419464647739</v>
       </c>
       <c r="AC8" t="n">
-        <v>110.4460764678776</v>
+        <v>155.6225045566122</v>
       </c>
       <c r="AD8" t="n">
-        <v>89237.75787190358</v>
+        <v>125739.218858366</v>
       </c>
       <c r="AE8" t="n">
-        <v>122099.0372123139</v>
+        <v>172041.9464647739</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.137075387567586e-06</v>
+        <v>5.804410798602273e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH8" t="n">
-        <v>110446.0764678776</v>
+        <v>155622.5045566122</v>
       </c>
     </row>
   </sheetData>
@@ -6320,28 +6320,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.4245058188819</v>
+        <v>258.6877944698355</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.4391156677343</v>
+        <v>353.9480528936682</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.4835228742773</v>
+        <v>320.167747494708</v>
       </c>
       <c r="AD2" t="n">
-        <v>206424.5058188819</v>
+        <v>258687.7944698355</v>
       </c>
       <c r="AE2" t="n">
-        <v>282439.1156677343</v>
+        <v>353948.0528936682</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.753558185015001e-06</v>
+        <v>3.076142087821604e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.10546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>255483.5228742773</v>
+        <v>320167.7474947079</v>
       </c>
     </row>
     <row r="3">
@@ -6426,28 +6426,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.711510827117</v>
+        <v>215.9730053333963</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.7844850751977</v>
+        <v>295.5037939535546</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.708913166347</v>
+        <v>267.3013266008941</v>
       </c>
       <c r="AD3" t="n">
-        <v>176711.510827117</v>
+        <v>215973.0053333963</v>
       </c>
       <c r="AE3" t="n">
-        <v>241784.4850751977</v>
+        <v>295503.7939535546</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.986991773732065e-06</v>
+        <v>3.485637987701113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.154947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>218708.913166347</v>
+        <v>267301.3266008941</v>
       </c>
     </row>
     <row r="4">
@@ -6532,28 +6532,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.3226019758856</v>
+        <v>193.6693478281855</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.1509922560102</v>
+        <v>264.9869457870163</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.9990379074358</v>
+        <v>239.6969635926951</v>
       </c>
       <c r="AD4" t="n">
-        <v>154322.6019758856</v>
+        <v>193669.3478281855</v>
       </c>
       <c r="AE4" t="n">
-        <v>211150.9922560102</v>
+        <v>264986.9457870163</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.155848402786265e-06</v>
+        <v>3.7818511318557e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.595052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>190999.0379074358</v>
+        <v>239696.9635926951</v>
       </c>
     </row>
     <row r="5">
@@ -6638,28 +6638,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.7991054678304</v>
+        <v>187.9752591195381</v>
       </c>
       <c r="AB5" t="n">
-        <v>203.593500654225</v>
+        <v>257.1960424103843</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.1628226971165</v>
+        <v>232.6496130997248</v>
       </c>
       <c r="AD5" t="n">
-        <v>148799.1054678304</v>
+        <v>187975.2591195381</v>
       </c>
       <c r="AE5" t="n">
-        <v>203593.500654225</v>
+        <v>257196.0424103843</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.276376045795852e-06</v>
+        <v>3.993284181854298e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.243489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>184162.8226971165</v>
+        <v>232649.6130997248</v>
       </c>
     </row>
     <row r="6">
@@ -6744,28 +6744,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>144.9554935868561</v>
+        <v>184.1316472385637</v>
       </c>
       <c r="AB6" t="n">
-        <v>198.3345013104899</v>
+        <v>251.9370430666491</v>
       </c>
       <c r="AC6" t="n">
-        <v>179.4057348696938</v>
+        <v>227.8925252723022</v>
       </c>
       <c r="AD6" t="n">
-        <v>144955.4935868561</v>
+        <v>184131.6472385637</v>
       </c>
       <c r="AE6" t="n">
-        <v>198334.5013104899</v>
+        <v>251937.0430666491</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.368906508457859e-06</v>
+        <v>4.155603774687068e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.002604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>179405.7348696938</v>
+        <v>227892.5252723022</v>
       </c>
     </row>
     <row r="7">
@@ -6850,28 +6850,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.5682070688093</v>
+        <v>167.8296120665375</v>
       </c>
       <c r="AB7" t="n">
-        <v>175.912692940452</v>
+        <v>229.6318793492605</v>
       </c>
       <c r="AC7" t="n">
-        <v>159.1238324212796</v>
+        <v>207.7161350746001</v>
       </c>
       <c r="AD7" t="n">
-        <v>128568.2070688093</v>
+        <v>167829.6120665375</v>
       </c>
       <c r="AE7" t="n">
-        <v>175912.692940452</v>
+        <v>229631.8793492605</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.450867052798315e-06</v>
+        <v>4.299381313488434e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.80078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>159123.8324212796</v>
+        <v>207716.1350746001</v>
       </c>
     </row>
     <row r="8">
@@ -6956,28 +6956,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>126.0206604245712</v>
+        <v>165.2820654222995</v>
       </c>
       <c r="AB8" t="n">
-        <v>172.4270272319814</v>
+        <v>226.1462136407899</v>
       </c>
       <c r="AC8" t="n">
-        <v>155.9708337558617</v>
+        <v>204.5631364091823</v>
       </c>
       <c r="AD8" t="n">
-        <v>126020.6604245713</v>
+        <v>165282.0654222995</v>
       </c>
       <c r="AE8" t="n">
-        <v>172427.0272319814</v>
+        <v>226146.2136407899</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.517758911928296e-06</v>
+        <v>4.416724932286351e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.64453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>155970.8337558617</v>
+        <v>204563.1364091823</v>
       </c>
     </row>
     <row r="9">
@@ -7062,28 +7062,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>122.7544352543069</v>
+        <v>161.8452480514429</v>
       </c>
       <c r="AB9" t="n">
-        <v>167.9580338583432</v>
+        <v>221.4438084923048</v>
       </c>
       <c r="AC9" t="n">
-        <v>151.9283548375305</v>
+        <v>200.3095222082</v>
       </c>
       <c r="AD9" t="n">
-        <v>122754.4352543069</v>
+        <v>161845.2480514429</v>
       </c>
       <c r="AE9" t="n">
-        <v>167958.0338583431</v>
+        <v>221443.8084923048</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.603104450772556e-06</v>
+        <v>4.566440525581246e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>151928.3548375305</v>
+        <v>200309.5222082</v>
       </c>
     </row>
     <row r="10">
@@ -7168,28 +7168,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>124.0029610443972</v>
+        <v>163.2643660421255</v>
       </c>
       <c r="AB10" t="n">
-        <v>169.6663219254143</v>
+        <v>223.3855083342228</v>
       </c>
       <c r="AC10" t="n">
-        <v>153.4736062890783</v>
+        <v>202.0659089423988</v>
       </c>
       <c r="AD10" t="n">
-        <v>124002.9610443972</v>
+        <v>163264.3660421254</v>
       </c>
       <c r="AE10" t="n">
-        <v>169666.3219254143</v>
+        <v>223385.5083342228</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.582510580984905e-06</v>
+        <v>4.530314168243199e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.5078125</v>
       </c>
       <c r="AH10" t="n">
-        <v>153473.6062890783</v>
+        <v>202065.9089423988</v>
       </c>
     </row>
     <row r="11">
@@ -7274,28 +7274,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>121.1171789396301</v>
+        <v>160.2079917367662</v>
       </c>
       <c r="AB11" t="n">
-        <v>165.7178675379527</v>
+        <v>219.2036421719143</v>
       </c>
       <c r="AC11" t="n">
-        <v>149.9019868466643</v>
+        <v>198.2831542173338</v>
       </c>
       <c r="AD11" t="n">
-        <v>121117.1789396301</v>
+        <v>160207.9917367662</v>
       </c>
       <c r="AE11" t="n">
-        <v>165717.8675379527</v>
+        <v>219203.6421719143</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.652023081021056e-06</v>
+        <v>4.652254990519978e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>149901.9868466643</v>
+        <v>198283.1542173338</v>
       </c>
     </row>
     <row r="12">
@@ -7380,28 +7380,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>120.1391256587125</v>
+        <v>159.2299384558486</v>
       </c>
       <c r="AB12" t="n">
-        <v>164.3796518903364</v>
+        <v>217.865426524298</v>
       </c>
       <c r="AC12" t="n">
-        <v>148.6914886222586</v>
+        <v>197.0726559929281</v>
       </c>
       <c r="AD12" t="n">
-        <v>120139.1256587125</v>
+        <v>159229.9384558485</v>
       </c>
       <c r="AE12" t="n">
-        <v>164379.6518903364</v>
+        <v>217865.426524298</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.675128398343785e-06</v>
+        <v>4.692787001191932e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH12" t="n">
-        <v>148691.4886222586</v>
+        <v>197072.6559929281</v>
       </c>
     </row>
     <row r="13">
@@ -7486,28 +7486,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>118.2143937141383</v>
+        <v>144.3887532211749</v>
       </c>
       <c r="AB13" t="n">
-        <v>161.7461487305908</v>
+        <v>197.5590621393449</v>
       </c>
       <c r="AC13" t="n">
-        <v>146.3093233079334</v>
+        <v>178.704302524707</v>
       </c>
       <c r="AD13" t="n">
-        <v>118214.3937141383</v>
+        <v>144388.7532211749</v>
       </c>
       <c r="AE13" t="n">
-        <v>161746.1487305909</v>
+        <v>197559.0621393449</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.728786020897609e-06</v>
+        <v>4.786914742421603e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>146309.3233079334</v>
+        <v>178704.302524707</v>
       </c>
     </row>
     <row r="14">
@@ -7592,28 +7592,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>116.8996416406438</v>
+        <v>143.0740011476803</v>
       </c>
       <c r="AB14" t="n">
-        <v>159.9472469408687</v>
+        <v>195.7601603496227</v>
       </c>
       <c r="AC14" t="n">
-        <v>144.6821061802472</v>
+        <v>177.0770853970208</v>
       </c>
       <c r="AD14" t="n">
-        <v>116899.6416406438</v>
+        <v>143074.0011476803</v>
       </c>
       <c r="AE14" t="n">
-        <v>159947.2469408687</v>
+        <v>195760.1603496227</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.757416522797513e-06</v>
+        <v>4.837139190428156e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH14" t="n">
-        <v>144682.1061802472</v>
+        <v>177077.0853970208</v>
       </c>
     </row>
     <row r="15">
@@ -7698,28 +7698,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>115.7843008951558</v>
+        <v>141.9586604021924</v>
       </c>
       <c r="AB15" t="n">
-        <v>158.4211885275319</v>
+        <v>194.2341019362859</v>
       </c>
       <c r="AC15" t="n">
-        <v>143.3016926400423</v>
+        <v>175.696671856816</v>
       </c>
       <c r="AD15" t="n">
-        <v>115784.3008951558</v>
+        <v>141958.6604021924</v>
       </c>
       <c r="AE15" t="n">
-        <v>158421.1885275319</v>
+        <v>194234.1019362859</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.782203418035035e-06</v>
+        <v>4.880621073332379e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.110677083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>143301.6926400423</v>
+        <v>175696.671856816</v>
       </c>
     </row>
     <row r="16">
@@ -7804,28 +7804,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>115.4128971797724</v>
+        <v>141.587256686809</v>
       </c>
       <c r="AB16" t="n">
-        <v>157.913017578969</v>
+        <v>193.725930987723</v>
       </c>
       <c r="AC16" t="n">
-        <v>142.8420208135878</v>
+        <v>175.2370000303613</v>
       </c>
       <c r="AD16" t="n">
-        <v>115412.8971797724</v>
+        <v>141587.2566868089</v>
       </c>
       <c r="AE16" t="n">
-        <v>157913.017578969</v>
+        <v>193725.9309877231</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.781504580460056e-06</v>
+        <v>4.879395152404682e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.110677083333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>142842.0208135878</v>
+        <v>175237.0000303613</v>
       </c>
     </row>
     <row r="17">
@@ -7910,28 +7910,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>115.3769569917475</v>
+        <v>141.551316498784</v>
       </c>
       <c r="AB17" t="n">
-        <v>157.8638426281441</v>
+        <v>193.6767560368982</v>
       </c>
       <c r="AC17" t="n">
-        <v>142.7975390510521</v>
+        <v>175.1925182678257</v>
       </c>
       <c r="AD17" t="n">
-        <v>115376.9569917475</v>
+        <v>141551.316498784</v>
       </c>
       <c r="AE17" t="n">
-        <v>157863.8426281441</v>
+        <v>193676.7560368982</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.775913879860228e-06</v>
+        <v>4.869587784983114e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>142797.5390510521</v>
+        <v>175192.5182678257</v>
       </c>
     </row>
     <row r="18">
@@ -8016,28 +8016,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>115.4278553963449</v>
+        <v>141.6022149033815</v>
       </c>
       <c r="AB18" t="n">
-        <v>157.9334840707935</v>
+        <v>193.7463974795475</v>
       </c>
       <c r="AC18" t="n">
-        <v>142.8605340121574</v>
+        <v>175.255513228931</v>
       </c>
       <c r="AD18" t="n">
-        <v>115427.8553963449</v>
+        <v>141602.2149033815</v>
       </c>
       <c r="AE18" t="n">
-        <v>157933.4840707935</v>
+        <v>193746.3974795475</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.774931139520414e-06</v>
+        <v>4.867863833678541e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>142860.5340121574</v>
+        <v>175255.513228931</v>
       </c>
     </row>
   </sheetData>
@@ -8313,28 +8313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.60138030822165</v>
+        <v>121.1568113065831</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.7553408871452</v>
+        <v>165.7720942908744</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.7078136165473</v>
+        <v>149.9510382743948</v>
       </c>
       <c r="AD2" t="n">
-        <v>84601.38030822165</v>
+        <v>121156.8113065831</v>
       </c>
       <c r="AE2" t="n">
-        <v>115755.3408871452</v>
+        <v>165772.0942908744</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.00752163799191e-06</v>
+        <v>7.521583377209186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.6015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>104707.8136165473</v>
+        <v>149951.0382743948</v>
       </c>
     </row>
   </sheetData>
@@ -8610,28 +8610,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.51170921087629</v>
+        <v>107.868209279333</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.3184518837764</v>
+        <v>147.5900427454541</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.45788384437276</v>
+        <v>133.504256209794</v>
       </c>
       <c r="AD2" t="n">
-        <v>75511.70921087629</v>
+        <v>107868.209279333</v>
       </c>
       <c r="AE2" t="n">
-        <v>103318.4518837764</v>
+        <v>147590.0427454541</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.546635302399255e-06</v>
+        <v>7.303527410212253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.798177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>93457.88384437276</v>
+        <v>133504.256209794</v>
       </c>
     </row>
   </sheetData>
@@ -8907,28 +8907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.6762202798263</v>
+        <v>172.4769421046485</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.6381901991719</v>
+        <v>235.990561333132</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.9211418714514</v>
+        <v>213.4679533743992</v>
       </c>
       <c r="AD2" t="n">
-        <v>135676.2202798263</v>
+        <v>172476.9421046485</v>
       </c>
       <c r="AE2" t="n">
-        <v>185638.1901991719</v>
+        <v>235990.561333132</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.418424569600815e-06</v>
+        <v>4.445843623506263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.236979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>167921.1418714514</v>
+        <v>213467.9533743992</v>
       </c>
     </row>
     <row r="3">
@@ -9013,28 +9013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.773788398304</v>
+        <v>153.6597615691467</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.7750489824463</v>
+        <v>210.2440647690556</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.5263425532952</v>
+        <v>190.1786663069552</v>
       </c>
       <c r="AD3" t="n">
-        <v>116773.788398304</v>
+        <v>153659.7615691467</v>
       </c>
       <c r="AE3" t="n">
-        <v>159775.0489824463</v>
+        <v>210244.0647690556</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.616006762332167e-06</v>
+        <v>4.809063358665526e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.76171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>144526.3425532952</v>
+        <v>190178.6663069552</v>
       </c>
     </row>
     <row r="4">
@@ -9119,28 +9119,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.0668466880665</v>
+        <v>148.7822276583171</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.3348036788899</v>
+        <v>203.5704076906524</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.7007452225672</v>
+        <v>184.1419336935761</v>
       </c>
       <c r="AD4" t="n">
-        <v>112066.8466880665</v>
+        <v>148782.2276583171</v>
       </c>
       <c r="AE4" t="n">
-        <v>153334.8036788899</v>
+        <v>203570.4076906524</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.775601288465697e-06</v>
+        <v>5.102449522234966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.436197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>138700.7452225672</v>
+        <v>184141.9336935761</v>
       </c>
     </row>
     <row r="5">
@@ -9225,28 +9225,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.0869128676676</v>
+        <v>133.6776511567804</v>
       </c>
       <c r="AB5" t="n">
-        <v>149.2575267604203</v>
+        <v>182.9036597543749</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.0125978907009</v>
+        <v>165.4475911743675</v>
       </c>
       <c r="AD5" t="n">
-        <v>109086.9128676675</v>
+        <v>133677.6511567804</v>
       </c>
       <c r="AE5" t="n">
-        <v>149257.5267604203</v>
+        <v>182903.6597543749</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.88249950880042e-06</v>
+        <v>5.298962895946573e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.234374999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>135012.5978907009</v>
+        <v>165447.5911743675</v>
       </c>
     </row>
     <row r="6">
@@ -9331,28 +9331,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>93.01758016316012</v>
+        <v>129.8182124794313</v>
       </c>
       <c r="AB6" t="n">
-        <v>127.2707568251991</v>
+        <v>177.6230054896108</v>
       </c>
       <c r="AC6" t="n">
-        <v>115.1242144194648</v>
+        <v>160.670915141186</v>
       </c>
       <c r="AD6" t="n">
-        <v>93017.58016316012</v>
+        <v>129818.2124794313</v>
       </c>
       <c r="AE6" t="n">
-        <v>127270.7568251991</v>
+        <v>177623.0054896108</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.019417251031958e-06</v>
+        <v>5.550661823792577e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.993489583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>115124.2144194648</v>
+        <v>160670.9151411859</v>
       </c>
     </row>
     <row r="7">
@@ -9437,28 +9437,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>92.59408680262273</v>
+        <v>129.3947191188939</v>
       </c>
       <c r="AB7" t="n">
-        <v>126.6913145261036</v>
+        <v>177.0435631905154</v>
       </c>
       <c r="AC7" t="n">
-        <v>114.6000732801424</v>
+        <v>160.1467740018636</v>
       </c>
       <c r="AD7" t="n">
-        <v>92594.08680262273</v>
+        <v>129394.7191188939</v>
       </c>
       <c r="AE7" t="n">
-        <v>126691.3145261036</v>
+        <v>177043.5631905154</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.028752025202032e-06</v>
+        <v>5.567822146567393e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.98046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>114600.0732801424</v>
+        <v>160146.7740018636</v>
       </c>
     </row>
     <row r="8">
@@ -9543,28 +9543,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>90.99390515881286</v>
+        <v>127.794537475084</v>
       </c>
       <c r="AB8" t="n">
-        <v>124.5018754060123</v>
+        <v>174.854124070424</v>
       </c>
       <c r="AC8" t="n">
-        <v>112.6195911567748</v>
+        <v>158.166291878496</v>
       </c>
       <c r="AD8" t="n">
-        <v>90993.90515881286</v>
+        <v>127794.537475084</v>
       </c>
       <c r="AE8" t="n">
-        <v>124501.8754060123</v>
+        <v>174854.124070424</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.082259043397744e-06</v>
+        <v>5.666185287038424e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>112619.5911567748</v>
+        <v>158166.291878496</v>
       </c>
     </row>
     <row r="9">
@@ -9649,28 +9649,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>90.36597137157464</v>
+        <v>127.1666036878458</v>
       </c>
       <c r="AB9" t="n">
-        <v>123.6427086958298</v>
+        <v>173.9949573602416</v>
       </c>
       <c r="AC9" t="n">
-        <v>111.8424221115639</v>
+        <v>157.3891228332851</v>
       </c>
       <c r="AD9" t="n">
-        <v>90365.97137157465</v>
+        <v>127166.6036878458</v>
       </c>
       <c r="AE9" t="n">
-        <v>123642.7086958298</v>
+        <v>173994.9573602416</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.108804083593539e-06</v>
+        <v>5.714983624259118e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>111842.4221115639</v>
+        <v>157389.122833285</v>
       </c>
     </row>
   </sheetData>
@@ -9946,28 +9946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.55605731134592</v>
+        <v>114.2546384430945</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.2203514957676</v>
+        <v>156.328236876678</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.70107584427463</v>
+        <v>141.4084893572692</v>
       </c>
       <c r="AD2" t="n">
-        <v>80556.05731134592</v>
+        <v>114254.6384430945</v>
       </c>
       <c r="AE2" t="n">
-        <v>110220.3514957676</v>
+        <v>156328.236876678</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.387330586924593e-06</v>
+        <v>6.710925540171003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.837239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>99701.07584427463</v>
+        <v>141408.4893572692</v>
       </c>
     </row>
     <row r="3">
@@ -10052,28 +10052,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.28097297105879</v>
+        <v>112.9795541028074</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.4757248486366</v>
+        <v>154.583610229547</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.12295391574642</v>
+        <v>139.830367428741</v>
       </c>
       <c r="AD3" t="n">
-        <v>79280.97297105879</v>
+        <v>112979.5541028074</v>
       </c>
       <c r="AE3" t="n">
-        <v>108475.7248486366</v>
+        <v>154583.610229547</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.452936455037172e-06</v>
+        <v>6.840902843715364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.74609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>98122.95391574642</v>
+        <v>139830.367428741</v>
       </c>
     </row>
     <row r="4">
@@ -10158,28 +10158,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.33825281072234</v>
+        <v>113.0368339424709</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.5540976522724</v>
+        <v>154.6619830331828</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.19384692900017</v>
+        <v>139.9012604419948</v>
       </c>
       <c r="AD4" t="n">
-        <v>79338.25281072233</v>
+        <v>113036.8339424709</v>
       </c>
       <c r="AE4" t="n">
-        <v>108554.0976522724</v>
+        <v>154661.9830331829</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.451351650707766e-06</v>
+        <v>6.837763054557659e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.74609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>98193.84692900017</v>
+        <v>139901.2604419948</v>
       </c>
     </row>
   </sheetData>
@@ -10455,28 +10455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.7306331751185</v>
+        <v>226.9251192175284</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.4424049984662</v>
+        <v>310.4889593429806</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.4949193285171</v>
+        <v>280.8563288373698</v>
       </c>
       <c r="AD2" t="n">
-        <v>175730.6331751185</v>
+        <v>226925.1192175284</v>
       </c>
       <c r="AE2" t="n">
-        <v>240442.4049984662</v>
+        <v>310488.9593429806</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.95558738974912e-06</v>
+        <v>3.477966310244535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.40234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>217494.9193285171</v>
+        <v>280856.3288373698</v>
       </c>
     </row>
     <row r="3">
@@ -10561,28 +10561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.7698329117035</v>
+        <v>202.049570300134</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.2899368852896</v>
+        <v>276.4531358824532</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.6019148387612</v>
+        <v>250.068836598326</v>
       </c>
       <c r="AD3" t="n">
-        <v>150769.8329117035</v>
+        <v>202049.570300134</v>
       </c>
       <c r="AE3" t="n">
-        <v>206289.9368852896</v>
+        <v>276453.1358824532</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.176076494017592e-06</v>
+        <v>3.870101011276801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.653645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>186601.9148387611</v>
+        <v>250068.836598326</v>
       </c>
     </row>
     <row r="4">
@@ -10667,28 +10667,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.7476744980595</v>
+        <v>182.1862318342905</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.6819099479817</v>
+        <v>249.2752398848534</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.9108645073964</v>
+        <v>225.4847608503119</v>
       </c>
       <c r="AD4" t="n">
-        <v>143747.6744980595</v>
+        <v>182186.2318342905</v>
       </c>
       <c r="AE4" t="n">
-        <v>196681.9099479817</v>
+        <v>249275.2398848534</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.338514065438935e-06</v>
+        <v>4.158992422564665e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.19140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>177910.8645073964</v>
+        <v>225484.760850312</v>
       </c>
     </row>
     <row r="5">
@@ -10773,28 +10773,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.8089869882723</v>
+        <v>164.3327956705238</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.1374062980643</v>
+        <v>224.8473808875852</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.7088538373921</v>
+        <v>203.3882624310199</v>
       </c>
       <c r="AD5" t="n">
-        <v>125808.9869882723</v>
+        <v>164332.7956705238</v>
       </c>
       <c r="AE5" t="n">
-        <v>172137.4062980643</v>
+        <v>224847.3808875852</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.470758614414318e-06</v>
+        <v>4.394186251518977e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>155708.8538373921</v>
+        <v>203388.2624310199</v>
       </c>
     </row>
     <row r="6">
@@ -10879,28 +10879,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.8339229659912</v>
+        <v>161.3577316482428</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.06679245222</v>
+        <v>220.7767670417409</v>
       </c>
       <c r="AC6" t="n">
-        <v>152.0267336638514</v>
+        <v>199.7061422574793</v>
       </c>
       <c r="AD6" t="n">
-        <v>122833.9229659913</v>
+        <v>161357.7316482428</v>
       </c>
       <c r="AE6" t="n">
-        <v>168066.79245222</v>
+        <v>220776.7670417409</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.552310901845674e-06</v>
+        <v>4.539225082151864e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.670572916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>152026.7336638515</v>
+        <v>199706.1422574793</v>
       </c>
     </row>
     <row r="7">
@@ -10985,28 +10985,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.9769753328504</v>
+        <v>158.3301918145097</v>
       </c>
       <c r="AB7" t="n">
-        <v>164.1577906609245</v>
+        <v>216.6343534755985</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.4908015171974</v>
+        <v>195.9590748281742</v>
       </c>
       <c r="AD7" t="n">
-        <v>119976.9753328504</v>
+        <v>158330.1918145097</v>
       </c>
       <c r="AE7" t="n">
-        <v>164157.7906609245</v>
+        <v>216634.3534755985</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.640288655762216e-06</v>
+        <v>4.695691454238653e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.481770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>148490.8015171974</v>
+        <v>195959.0748281742</v>
       </c>
     </row>
     <row r="8">
@@ -11091,28 +11091,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>116.8449770152428</v>
+        <v>155.1981934969022</v>
       </c>
       <c r="AB8" t="n">
-        <v>159.8724523887621</v>
+        <v>212.3490152034361</v>
       </c>
       <c r="AC8" t="n">
-        <v>144.6144499152188</v>
+        <v>192.0827232261956</v>
       </c>
       <c r="AD8" t="n">
-        <v>116844.9770152428</v>
+        <v>155198.1934969022</v>
       </c>
       <c r="AE8" t="n">
-        <v>159872.4523887621</v>
+        <v>212349.0152034361</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.728310876574849e-06</v>
+        <v>4.852236909657302e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.305989583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>144614.4499152188</v>
+        <v>192082.7232261956</v>
       </c>
     </row>
     <row r="9">
@@ -11197,28 +11197,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>117.4504482786271</v>
+        <v>155.8036647602864</v>
       </c>
       <c r="AB9" t="n">
-        <v>160.7008848828309</v>
+        <v>213.177447697505</v>
       </c>
       <c r="AC9" t="n">
-        <v>145.3638179747663</v>
+        <v>192.832091285743</v>
       </c>
       <c r="AD9" t="n">
-        <v>117450.4482786271</v>
+        <v>155803.6647602864</v>
       </c>
       <c r="AE9" t="n">
-        <v>160700.8848828309</v>
+        <v>213177.4476975049</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.71341446638428e-06</v>
+        <v>4.825743993483901e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.332031249999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>145363.8179747663</v>
+        <v>192832.0912857431</v>
       </c>
     </row>
     <row r="10">
@@ -11303,28 +11303,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>115.2035260364697</v>
+        <v>140.8861546665217</v>
       </c>
       <c r="AB10" t="n">
-        <v>157.6265467438994</v>
+        <v>192.7666522731284</v>
       </c>
       <c r="AC10" t="n">
-        <v>142.5828903529528</v>
+        <v>174.3692735299312</v>
       </c>
       <c r="AD10" t="n">
-        <v>115203.5260364697</v>
+        <v>140886.1546665218</v>
       </c>
       <c r="AE10" t="n">
-        <v>157626.5467438994</v>
+        <v>192766.6522731284</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.772066302328641e-06</v>
+        <v>4.930054908208426e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>142582.8903529528</v>
+        <v>174369.2735299312</v>
       </c>
     </row>
     <row r="11">
@@ -11409,28 +11409,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>113.4570868785029</v>
+        <v>139.139715508555</v>
       </c>
       <c r="AB11" t="n">
-        <v>155.2369916405126</v>
+        <v>190.3770971697416</v>
       </c>
       <c r="AC11" t="n">
-        <v>140.4213910348708</v>
+        <v>172.2077742118492</v>
       </c>
       <c r="AD11" t="n">
-        <v>113457.0868785029</v>
+        <v>139139.715508555</v>
       </c>
       <c r="AE11" t="n">
-        <v>155236.9916405126</v>
+        <v>190377.0971697416</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.826293682111923e-06</v>
+        <v>5.026497031412793e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>140421.3910348708</v>
+        <v>172207.7742118492</v>
       </c>
     </row>
     <row r="12">
@@ -11515,28 +11515,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>111.9768503089636</v>
+        <v>137.6594789390157</v>
       </c>
       <c r="AB12" t="n">
-        <v>153.2116666626413</v>
+        <v>188.3517721918703</v>
       </c>
       <c r="AC12" t="n">
-        <v>138.5893602303254</v>
+        <v>170.3757434073039</v>
       </c>
       <c r="AD12" t="n">
-        <v>111976.8503089636</v>
+        <v>137659.4789390157</v>
       </c>
       <c r="AE12" t="n">
-        <v>153211.6666626413</v>
+        <v>188351.7721918703</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.85481919595446e-06</v>
+        <v>5.077228988801558e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.071614583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>138589.3602303254</v>
+        <v>170375.7434073039</v>
       </c>
     </row>
     <row r="13">
@@ -11621,28 +11621,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>111.2655116734398</v>
+        <v>136.9481403034918</v>
       </c>
       <c r="AB13" t="n">
-        <v>152.2383817594724</v>
+        <v>187.3784872887013</v>
       </c>
       <c r="AC13" t="n">
-        <v>137.7089642723006</v>
+        <v>169.4953474492791</v>
       </c>
       <c r="AD13" t="n">
-        <v>111265.5116734398</v>
+        <v>136948.1403034918</v>
       </c>
       <c r="AE13" t="n">
-        <v>152238.3817594724</v>
+        <v>187378.4872887013</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.876763609175494e-06</v>
+        <v>5.116256613074912e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.032552083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>137708.9642723007</v>
+        <v>169495.3474492791</v>
       </c>
     </row>
     <row r="14">
@@ -11727,28 +11727,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>111.1053026832846</v>
+        <v>136.7879313133367</v>
       </c>
       <c r="AB14" t="n">
-        <v>152.0191767512203</v>
+        <v>187.1592822804493</v>
       </c>
       <c r="AC14" t="n">
-        <v>137.5106798823799</v>
+        <v>169.2970630593584</v>
       </c>
       <c r="AD14" t="n">
-        <v>111105.3026832846</v>
+        <v>136787.9313133367</v>
       </c>
       <c r="AE14" t="n">
-        <v>152019.1767512203</v>
+        <v>187159.2822804493</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.873161790592102e-06</v>
+        <v>5.10985086319418e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.0390625</v>
       </c>
       <c r="AH14" t="n">
-        <v>137510.6798823799</v>
+        <v>169297.0630593584</v>
       </c>
     </row>
   </sheetData>
@@ -12024,28 +12024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.3925307660192</v>
+        <v>140.5130749635782</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.2027101843121</v>
+        <v>192.2561881644465</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.4402059141352</v>
+        <v>173.9075273993408</v>
       </c>
       <c r="AD2" t="n">
-        <v>105392.5307660192</v>
+        <v>140513.0749635782</v>
       </c>
       <c r="AE2" t="n">
-        <v>144202.7101843121</v>
+        <v>192256.1881644464</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.894774675037759e-06</v>
+        <v>5.517887288141049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>130440.2059141352</v>
+        <v>173907.5273993408</v>
       </c>
     </row>
     <row r="3">
@@ -12130,28 +12130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.8382379597401</v>
+        <v>124.3657517337253</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.9713258455459</v>
+        <v>170.1627081517484</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.8035361508561</v>
+        <v>153.9226181106537</v>
       </c>
       <c r="AD3" t="n">
-        <v>100838.2379597401</v>
+        <v>124365.7517337253</v>
       </c>
       <c r="AE3" t="n">
-        <v>137971.3258455459</v>
+        <v>170162.7081517484</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.093717390893387e-06</v>
+        <v>5.897102807868404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>124803.5361508561</v>
+        <v>153922.6181106537</v>
       </c>
     </row>
     <row r="4">
@@ -12236,28 +12236,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.81012294613413</v>
+        <v>121.0159184897137</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.4091958902978</v>
+        <v>165.5793185230814</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.2038270193997</v>
+        <v>149.7766607553175</v>
       </c>
       <c r="AD4" t="n">
-        <v>85810.12294613413</v>
+        <v>121015.9184897137</v>
       </c>
       <c r="AE4" t="n">
-        <v>117409.1958902978</v>
+        <v>165579.3185230814</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.226209038168521e-06</v>
+        <v>6.149652335328531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>106203.8270193997</v>
+        <v>149776.6607553175</v>
       </c>
     </row>
     <row r="5">
@@ -12342,28 +12342,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.23646915413578</v>
+        <v>118.4422646977154</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.8878092304955</v>
+        <v>162.0579318632792</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.0185165601106</v>
+        <v>146.5913502960284</v>
       </c>
       <c r="AD5" t="n">
-        <v>83236.46915413578</v>
+        <v>118442.2646977154</v>
       </c>
       <c r="AE5" t="n">
-        <v>113887.8092304955</v>
+        <v>162057.9318632791</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.348776488791554e-06</v>
+        <v>6.38328481234468e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.694010416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>103018.5165601106</v>
+        <v>146591.3502960284</v>
       </c>
     </row>
     <row r="6">
@@ -12448,28 +12448,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.29414290132428</v>
+        <v>118.4999384449039</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.9667209957849</v>
+        <v>162.1368436285685</v>
       </c>
       <c r="AC6" t="n">
-        <v>103.0898970972741</v>
+        <v>146.6627308331919</v>
       </c>
       <c r="AD6" t="n">
-        <v>83294.14290132427</v>
+        <v>118499.9384449039</v>
       </c>
       <c r="AE6" t="n">
-        <v>113966.7209957849</v>
+        <v>162136.8436285685</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.347206968639761e-06</v>
+        <v>6.380293064707554e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.694010416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>103089.8970972741</v>
+        <v>146662.7308331919</v>
       </c>
     </row>
   </sheetData>
@@ -12745,28 +12745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.3317222097919</v>
+        <v>194.1927332045219</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.4810297935402</v>
+        <v>265.7030647490527</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.6337174764668</v>
+        <v>240.3447371660743</v>
       </c>
       <c r="AD2" t="n">
-        <v>144331.7222097919</v>
+        <v>194192.7332045219</v>
       </c>
       <c r="AE2" t="n">
-        <v>197481.0297935402</v>
+        <v>265703.0647490527</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.244592304340475e-06</v>
+        <v>4.076935043802221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.62109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>178633.7174764668</v>
+        <v>240344.7371660743</v>
       </c>
     </row>
     <row r="3">
@@ -12851,28 +12851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.5616867188783</v>
+        <v>172.936199259834</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.4814803282189</v>
+        <v>236.6189372338522</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.7793881706385</v>
+        <v>214.036357961086</v>
       </c>
       <c r="AD3" t="n">
-        <v>135561.6867188783</v>
+        <v>172936.199259834</v>
       </c>
       <c r="AE3" t="n">
-        <v>185481.4803282189</v>
+        <v>236618.9372338522</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.467971734361645e-06</v>
+        <v>4.482667267225069e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.022135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>167779.3881706385</v>
+        <v>214036.357961086</v>
       </c>
     </row>
     <row r="4">
@@ -12957,28 +12957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.186121992405</v>
+        <v>155.6458858793812</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.707466113655</v>
+        <v>212.9615676719376</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.2743325056665</v>
+        <v>192.6368145468262</v>
       </c>
       <c r="AD4" t="n">
-        <v>118186.121992405</v>
+        <v>155645.8858793812</v>
       </c>
       <c r="AE4" t="n">
-        <v>161707.466113655</v>
+        <v>212961.5676719376</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.613573574389752e-06</v>
+        <v>4.747129211117856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.68359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>146274.3325056665</v>
+        <v>192636.8145468262</v>
       </c>
     </row>
     <row r="5">
@@ -13063,28 +13063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.4633084339266</v>
+        <v>151.7524801203106</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.6137483640046</v>
+        <v>207.6344381474403</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.6667520289633</v>
+        <v>187.818098787472</v>
       </c>
       <c r="AD5" t="n">
-        <v>114463.3084339266</v>
+        <v>151752.4801203106</v>
       </c>
       <c r="AE5" t="n">
-        <v>156613.7483640046</v>
+        <v>207634.4381474403</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.73589007781882e-06</v>
+        <v>4.969297147050368e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>141666.7520289633</v>
+        <v>187818.098787472</v>
       </c>
     </row>
     <row r="6">
@@ -13169,28 +13169,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>111.8106733771492</v>
+        <v>136.783938810351</v>
       </c>
       <c r="AB6" t="n">
-        <v>152.9842960533241</v>
+        <v>187.1538195617276</v>
       </c>
       <c r="AC6" t="n">
-        <v>138.3836895528447</v>
+        <v>169.2921216948445</v>
       </c>
       <c r="AD6" t="n">
-        <v>111810.6733771492</v>
+        <v>136783.938810351</v>
       </c>
       <c r="AE6" t="n">
-        <v>152984.2960533241</v>
+        <v>187153.8195617276</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.825538623725119e-06</v>
+        <v>5.132129077697432e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>138383.6895528447</v>
+        <v>169292.1216948445</v>
       </c>
     </row>
     <row r="7">
@@ -13275,28 +13275,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.674990007433</v>
+        <v>133.6482554406348</v>
       </c>
       <c r="AB7" t="n">
-        <v>148.6939157302937</v>
+        <v>182.8634392386971</v>
       </c>
       <c r="AC7" t="n">
-        <v>134.5027771062563</v>
+        <v>165.4112092482561</v>
       </c>
       <c r="AD7" t="n">
-        <v>108674.990007433</v>
+        <v>133648.2554406348</v>
       </c>
       <c r="AE7" t="n">
-        <v>148693.9157302937</v>
+        <v>182863.4392386971</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.931053158784685e-06</v>
+        <v>5.323778984356646e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.071614583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>134502.7771062563</v>
+        <v>165411.2092482561</v>
       </c>
     </row>
     <row r="8">
@@ -13381,28 +13381,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.8734535707326</v>
+        <v>132.8467190039344</v>
       </c>
       <c r="AB8" t="n">
-        <v>147.5972182163088</v>
+        <v>181.7667417247123</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.5107468637812</v>
+        <v>164.419179005781</v>
       </c>
       <c r="AD8" t="n">
-        <v>107873.4535707326</v>
+        <v>132846.7190039344</v>
       </c>
       <c r="AE8" t="n">
-        <v>147597.2182163088</v>
+        <v>181766.7417247123</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.95997719944251e-06</v>
+        <v>5.376314776597499e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.01953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>133510.7468637812</v>
+        <v>164419.179005781</v>
       </c>
     </row>
     <row r="9">
@@ -13487,28 +13487,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>93.58714997580589</v>
+        <v>130.9615730082105</v>
       </c>
       <c r="AB9" t="n">
-        <v>128.0500673705073</v>
+        <v>179.1874018065923</v>
       </c>
       <c r="AC9" t="n">
-        <v>115.8291486600983</v>
+        <v>162.0860076693192</v>
       </c>
       <c r="AD9" t="n">
-        <v>93587.14997580589</v>
+        <v>130961.5730082105</v>
       </c>
       <c r="AE9" t="n">
-        <v>128050.0673705073</v>
+        <v>179187.4018065923</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.011935460324287e-06</v>
+        <v>5.470688464948076e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.934895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>115829.1486600983</v>
+        <v>162086.0076693192</v>
       </c>
     </row>
     <row r="10">
@@ -13593,28 +13593,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>92.85881969674068</v>
+        <v>130.2332427291453</v>
       </c>
       <c r="AB10" t="n">
-        <v>127.0535337510266</v>
+        <v>178.1908681871116</v>
       </c>
       <c r="AC10" t="n">
-        <v>114.9277228106168</v>
+        <v>161.1845818198377</v>
       </c>
       <c r="AD10" t="n">
-        <v>92858.81969674068</v>
+        <v>130233.2427291453</v>
       </c>
       <c r="AE10" t="n">
-        <v>127053.5337510266</v>
+        <v>178190.8681871116</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.033508639820456e-06</v>
+        <v>5.509872619381862e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.90234375</v>
       </c>
       <c r="AH10" t="n">
-        <v>114927.7228106168</v>
+        <v>161184.5818198377</v>
       </c>
     </row>
     <row r="11">
@@ -13699,28 +13699,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>92.93498604491626</v>
+        <v>130.3094090773209</v>
       </c>
       <c r="AB11" t="n">
-        <v>127.1577479088225</v>
+        <v>178.2950823449075</v>
       </c>
       <c r="AC11" t="n">
-        <v>115.0219909154582</v>
+        <v>161.2788499246791</v>
       </c>
       <c r="AD11" t="n">
-        <v>92934.98604491625</v>
+        <v>130309.4090773208</v>
       </c>
       <c r="AE11" t="n">
-        <v>127157.7479088225</v>
+        <v>178295.0823449075</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.032390030513247e-06</v>
+        <v>5.507840848411222e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.90234375</v>
       </c>
       <c r="AH11" t="n">
-        <v>115021.9909154582</v>
+        <v>161278.8499246791</v>
       </c>
     </row>
   </sheetData>
@@ -13996,28 +13996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.59559825927768</v>
+        <v>103.9005848782783</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.32850023006567</v>
+        <v>142.1613640006988</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.84872757655859</v>
+        <v>128.593682945238</v>
       </c>
       <c r="AD2" t="n">
-        <v>72595.59825927769</v>
+        <v>103900.5848782783</v>
       </c>
       <c r="AE2" t="n">
-        <v>99328.50023006568</v>
+        <v>142161.3640006988</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.606823059796745e-06</v>
+        <v>7.681589201188929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.86328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>89848.72757655859</v>
+        <v>128593.682945238</v>
       </c>
     </row>
   </sheetData>
@@ -14293,28 +14293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.75629537627184</v>
+        <v>109.5863426603008</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.0213495825362</v>
+        <v>149.9408686359882</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.9982593767954</v>
+        <v>135.6307225767412</v>
       </c>
       <c r="AD2" t="n">
-        <v>76756.29537627184</v>
+        <v>109586.3426603008</v>
       </c>
       <c r="AE2" t="n">
-        <v>105021.3495825362</v>
+        <v>149940.8686359882</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.516288786706759e-06</v>
+        <v>7.139281929381915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.772135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>94998.25937679541</v>
+        <v>135630.7225767412</v>
       </c>
     </row>
     <row r="3">
@@ -14399,28 +14399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.80751127846585</v>
+        <v>109.6375585624948</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.0914254394042</v>
+        <v>150.0109444928562</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.06164729223599</v>
+        <v>135.6941104921817</v>
       </c>
       <c r="AD3" t="n">
-        <v>76807.51127846586</v>
+        <v>109637.5585624948</v>
       </c>
       <c r="AE3" t="n">
-        <v>105091.4254394042</v>
+        <v>150010.9444928562</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.514304003240304e-06</v>
+        <v>7.135252132742525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.772135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>95061.64729223598</v>
+        <v>135694.1104921818</v>
       </c>
     </row>
   </sheetData>
@@ -14696,28 +14696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.7672891571823</v>
+        <v>232.4671191569364</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.3337799147021</v>
+        <v>318.0717681558565</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.7285910948551</v>
+        <v>287.7154450196862</v>
       </c>
       <c r="AD2" t="n">
-        <v>180767.2891571823</v>
+        <v>232467.1191569364</v>
       </c>
       <c r="AE2" t="n">
-        <v>247333.7799147021</v>
+        <v>318071.7681558565</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.893356458210762e-06</v>
+        <v>3.351335422941425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.59765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>223728.5910948551</v>
+        <v>287715.4450196862</v>
       </c>
     </row>
     <row r="3">
@@ -14802,28 +14802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.3071728367666</v>
+        <v>205.921661981949</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.129881427182</v>
+        <v>281.7511025461387</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.9799418664817</v>
+        <v>254.8611727593741</v>
       </c>
       <c r="AD3" t="n">
-        <v>154307.1728367666</v>
+        <v>205921.661981949</v>
       </c>
       <c r="AE3" t="n">
-        <v>211129.881427182</v>
+        <v>281751.1025461387</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.12180022778877e-06</v>
+        <v>3.755692296057932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.77734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>190979.9418664817</v>
+        <v>254861.1727593741</v>
       </c>
     </row>
     <row r="4">
@@ -14908,28 +14908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.8202407161344</v>
+        <v>185.5098618699294</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.8859305996044</v>
+        <v>253.8227771278209</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.7136593284096</v>
+        <v>229.5982875213207</v>
       </c>
       <c r="AD4" t="n">
-        <v>146820.2407161344</v>
+        <v>185509.8618699294</v>
       </c>
       <c r="AE4" t="n">
-        <v>200885.9305996044</v>
+        <v>253822.7771278209</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.283377016641004e-06</v>
+        <v>4.041691276153491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>181713.6593284096</v>
+        <v>229598.2875213207</v>
       </c>
     </row>
     <row r="5">
@@ -15014,28 +15014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.4906967789561</v>
+        <v>181.1803179327511</v>
       </c>
       <c r="AB5" t="n">
-        <v>194.9620575787621</v>
+        <v>247.8989041069786</v>
       </c>
       <c r="AC5" t="n">
-        <v>176.3551524344666</v>
+        <v>224.2397806273777</v>
       </c>
       <c r="AD5" t="n">
-        <v>142490.6967789561</v>
+        <v>181180.3179327511</v>
       </c>
       <c r="AE5" t="n">
-        <v>194962.0575787621</v>
+        <v>247898.9041069786</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.39021834242062e-06</v>
+        <v>4.230805754922915e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>176355.1524344666</v>
+        <v>224239.7806273777</v>
       </c>
     </row>
     <row r="6">
@@ -15120,28 +15120,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>125.7674909913622</v>
+        <v>164.5423634911778</v>
       </c>
       <c r="AB6" t="n">
-        <v>172.0806296444179</v>
+        <v>225.1341208252836</v>
       </c>
       <c r="AC6" t="n">
-        <v>155.6574958678831</v>
+        <v>203.6476363115064</v>
       </c>
       <c r="AD6" t="n">
-        <v>125767.4909913622</v>
+        <v>164542.3634911778</v>
       </c>
       <c r="AE6" t="n">
-        <v>172080.6296444179</v>
+        <v>225134.1208252836</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.489612816744656e-06</v>
+        <v>4.406738934965288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH6" t="n">
-        <v>155657.4958678831</v>
+        <v>203647.6363115064</v>
       </c>
     </row>
     <row r="7">
@@ -15226,28 +15226,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>122.8163184004156</v>
+        <v>161.5911909002311</v>
       </c>
       <c r="AB7" t="n">
-        <v>168.0427051089408</v>
+        <v>221.0961962898065</v>
       </c>
       <c r="AC7" t="n">
-        <v>152.004945182808</v>
+        <v>199.9950856264313</v>
       </c>
       <c r="AD7" t="n">
-        <v>122816.3184004156</v>
+        <v>161591.1909002311</v>
       </c>
       <c r="AE7" t="n">
-        <v>168042.7051089408</v>
+        <v>221096.1962898065</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.574467147870555e-06</v>
+        <v>4.556935335890744e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.5859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>152004.945182808</v>
+        <v>199995.0856264313</v>
       </c>
     </row>
     <row r="8">
@@ -15332,28 +15332,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>120.1452223263051</v>
+        <v>158.7495026255285</v>
       </c>
       <c r="AB8" t="n">
-        <v>164.3879936199026</v>
+        <v>217.2080730259215</v>
       </c>
       <c r="AC8" t="n">
-        <v>148.6990342288627</v>
+        <v>196.478039389835</v>
       </c>
       <c r="AD8" t="n">
-        <v>120145.2223263051</v>
+        <v>158749.5026255285</v>
       </c>
       <c r="AE8" t="n">
-        <v>164387.9936199026</v>
+        <v>217208.0730259215</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.649930049119239e-06</v>
+        <v>4.69050843723461e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH8" t="n">
-        <v>148699.0342288627</v>
+        <v>196478.039389835</v>
       </c>
     </row>
     <row r="9">
@@ -15438,28 +15438,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>119.0844380882427</v>
+        <v>157.6887183874661</v>
       </c>
       <c r="AB9" t="n">
-        <v>162.9365818268888</v>
+        <v>215.7566612329076</v>
       </c>
       <c r="AC9" t="n">
-        <v>147.3861431403044</v>
+        <v>195.1651483012767</v>
       </c>
       <c r="AD9" t="n">
-        <v>119084.4380882428</v>
+        <v>157688.7183874661</v>
       </c>
       <c r="AE9" t="n">
-        <v>162936.5818268888</v>
+        <v>215756.6612329076</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.681905105665899e-06</v>
+        <v>4.747105883104176e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>147386.1431403044</v>
+        <v>195165.1483012767</v>
       </c>
     </row>
     <row r="10">
@@ -15544,28 +15544,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>117.2959589548045</v>
+        <v>143.1459634632326</v>
       </c>
       <c r="AB10" t="n">
-        <v>160.489505774389</v>
+        <v>195.8586223645146</v>
       </c>
       <c r="AC10" t="n">
-        <v>145.1726125917616</v>
+        <v>177.1661503354037</v>
       </c>
       <c r="AD10" t="n">
-        <v>117295.9589548045</v>
+        <v>143145.9634632326</v>
       </c>
       <c r="AE10" t="n">
-        <v>160489.505774389</v>
+        <v>195858.6223645146</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.733060776644144e-06</v>
+        <v>4.837653973766268e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.266927083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>145172.6125917616</v>
+        <v>177166.1503354037</v>
       </c>
     </row>
     <row r="11">
@@ -15650,28 +15650,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>116.331118993595</v>
+        <v>142.1811235020231</v>
       </c>
       <c r="AB11" t="n">
-        <v>159.1693691737279</v>
+        <v>194.5384857638535</v>
       </c>
       <c r="AC11" t="n">
-        <v>143.9784679754438</v>
+        <v>175.9720057190859</v>
       </c>
       <c r="AD11" t="n">
-        <v>116331.118993595</v>
+        <v>142181.1235020231</v>
       </c>
       <c r="AE11" t="n">
-        <v>159169.3691737279</v>
+        <v>194538.4857638535</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.756064255472806e-06</v>
+        <v>4.878371279329654e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>143978.4679754438</v>
+        <v>175972.0057190859</v>
       </c>
     </row>
     <row r="12">
@@ -15756,28 +15756,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>114.4733070011</v>
+        <v>140.3233115095281</v>
       </c>
       <c r="AB12" t="n">
-        <v>156.6274288447169</v>
+        <v>191.9965454348424</v>
       </c>
       <c r="AC12" t="n">
-        <v>141.6791268637971</v>
+        <v>173.6726646074393</v>
       </c>
       <c r="AD12" t="n">
-        <v>114473.3070011</v>
+        <v>140323.3115095281</v>
       </c>
       <c r="AE12" t="n">
-        <v>156627.4288447169</v>
+        <v>191996.5454348424</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.810291476457951e-06</v>
+        <v>4.97435616679608e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH12" t="n">
-        <v>141679.1268637971</v>
+        <v>173672.6646074392</v>
       </c>
     </row>
     <row r="13">
@@ -15862,28 +15862,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>113.1916985598121</v>
+        <v>139.0417030682402</v>
       </c>
       <c r="AB13" t="n">
-        <v>154.8738756347737</v>
+        <v>190.2429922248992</v>
       </c>
       <c r="AC13" t="n">
-        <v>140.092930311083</v>
+        <v>172.0864680547251</v>
       </c>
       <c r="AD13" t="n">
-        <v>113191.6985598121</v>
+        <v>139041.7030682402</v>
       </c>
       <c r="AE13" t="n">
-        <v>154873.8756347737</v>
+        <v>190242.9922248992</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.838377376161341e-06</v>
+        <v>5.024069610956563e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.071614583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>140092.930311083</v>
+        <v>172086.4680547251</v>
       </c>
     </row>
     <row r="14">
@@ -15968,28 +15968,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>112.2524235582939</v>
+        <v>138.102428066722</v>
       </c>
       <c r="AB14" t="n">
-        <v>153.5887181398086</v>
+        <v>188.9578347299342</v>
       </c>
       <c r="AC14" t="n">
-        <v>138.9304264437071</v>
+        <v>170.9239641873492</v>
       </c>
       <c r="AD14" t="n">
-        <v>112252.4235582939</v>
+        <v>138102.428066722</v>
       </c>
       <c r="AE14" t="n">
-        <v>153588.7181398086</v>
+        <v>188957.8347299342</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.860519053189506e-06</v>
+        <v>5.06326148432305e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>138930.4264437071</v>
+        <v>170923.9641873492</v>
       </c>
     </row>
     <row r="15">
@@ -16074,28 +16074,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>112.3128025535246</v>
+        <v>138.1628070619527</v>
       </c>
       <c r="AB15" t="n">
-        <v>153.6713313448165</v>
+        <v>189.040447934942</v>
       </c>
       <c r="AC15" t="n">
-        <v>139.0051551603773</v>
+        <v>170.9986929040195</v>
       </c>
       <c r="AD15" t="n">
-        <v>112312.8025535246</v>
+        <v>138162.8070619527</v>
       </c>
       <c r="AE15" t="n">
-        <v>153671.3313448165</v>
+        <v>189040.447934942</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.858552377285806e-06</v>
+        <v>5.059780369822434e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.032552083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>139005.1551603774</v>
+        <v>170998.6929040195</v>
       </c>
     </row>
     <row r="16">
@@ -16180,28 +16180,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>112.3871404782108</v>
+        <v>138.2371449866389</v>
       </c>
       <c r="AB16" t="n">
-        <v>153.7730437729299</v>
+        <v>189.1421603630554</v>
       </c>
       <c r="AC16" t="n">
-        <v>139.097160297106</v>
+        <v>171.0906980407481</v>
       </c>
       <c r="AD16" t="n">
-        <v>112387.1404782108</v>
+        <v>138237.1449866389</v>
       </c>
       <c r="AE16" t="n">
-        <v>153773.0437729299</v>
+        <v>189142.1603630554</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.857734770449437e-06</v>
+        <v>5.058333164917683e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.032552083333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>139097.160297106</v>
+        <v>171090.6980407481</v>
       </c>
     </row>
   </sheetData>
@@ -16477,28 +16477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.94276014326699</v>
+        <v>100.0358262458047</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.3812112536409</v>
+        <v>136.8734307386337</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.94202196911552</v>
+        <v>123.8104226120417</v>
       </c>
       <c r="AD2" t="n">
-        <v>79942.76014326699</v>
+        <v>100035.8262458047</v>
       </c>
       <c r="AE2" t="n">
-        <v>109381.2112536409</v>
+        <v>136873.4307386337</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.581753810475653e-06</v>
+        <v>7.975866133300785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.084635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>98942.02196911552</v>
+        <v>123810.4226120417</v>
       </c>
     </row>
   </sheetData>
@@ -16774,28 +16774,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.1525418678781</v>
+        <v>144.7842328506531</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.3473232538554</v>
+        <v>198.1001748157266</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.0938243328328</v>
+        <v>179.1937721667115</v>
       </c>
       <c r="AD2" t="n">
-        <v>109152.5418678781</v>
+        <v>144784.2328506531</v>
       </c>
       <c r="AE2" t="n">
-        <v>149347.3232538554</v>
+        <v>198100.1748157266</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.774967254779473e-06</v>
+        <v>5.246807266955055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.611979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>135093.8243328328</v>
+        <v>179193.7721667115</v>
       </c>
     </row>
     <row r="3">
@@ -16880,28 +16880,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.9391128427846</v>
+        <v>127.693663006519</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.2140796614702</v>
+        <v>174.716103172266</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.6413674973323</v>
+        <v>158.0414435011446</v>
       </c>
       <c r="AD3" t="n">
-        <v>103939.1128427846</v>
+        <v>127693.663006519</v>
       </c>
       <c r="AE3" t="n">
-        <v>142214.0796614702</v>
+        <v>174716.103172266</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.983944084105722e-06</v>
+        <v>5.641933063429121e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>128641.3674973323</v>
+        <v>158041.4435011446</v>
       </c>
     </row>
     <row r="4">
@@ -16986,28 +16986,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.49270130719488</v>
+        <v>124.0390514353983</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.0796179509041</v>
+        <v>169.7157023905777</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.5239491500125</v>
+        <v>153.5182739519524</v>
       </c>
       <c r="AD4" t="n">
-        <v>88492.70130719487</v>
+        <v>124039.0514353983</v>
       </c>
       <c r="AE4" t="n">
-        <v>121079.6179509041</v>
+        <v>169715.7023905777</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.13761970507597e-06</v>
+        <v>5.932497344312717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.967447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>109523.9491500125</v>
+        <v>153518.2739519524</v>
       </c>
     </row>
     <row r="5">
@@ -17092,28 +17092,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.35901219681921</v>
+        <v>120.9053623250226</v>
       </c>
       <c r="AB5" t="n">
-        <v>116.7919662614838</v>
+        <v>165.4280507011574</v>
       </c>
       <c r="AC5" t="n">
-        <v>105.6455049200722</v>
+        <v>149.6398297220121</v>
       </c>
       <c r="AD5" t="n">
-        <v>85359.01219681921</v>
+        <v>120905.3623250226</v>
       </c>
       <c r="AE5" t="n">
-        <v>116791.9662614838</v>
+        <v>165428.0507011574</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.265594980838798e-06</v>
+        <v>6.174468346207061e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.772135416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>105645.5049200722</v>
+        <v>149639.8297220121</v>
       </c>
     </row>
     <row r="6">
@@ -17198,28 +17198,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.3361137359892</v>
+        <v>120.8824638641926</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.7606355771674</v>
+        <v>165.396720016841</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.6171643922941</v>
+        <v>149.611489194234</v>
       </c>
       <c r="AD6" t="n">
-        <v>85336.1137359892</v>
+        <v>120882.4638641926</v>
       </c>
       <c r="AE6" t="n">
-        <v>116760.6355771674</v>
+        <v>165396.720016841</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.266719670061096e-06</v>
+        <v>6.176594867727074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.772135416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>105617.1643922941</v>
+        <v>149611.489194234</v>
       </c>
     </row>
     <row r="7">
@@ -17304,28 +17304,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.37569864748853</v>
+        <v>120.922048775692</v>
       </c>
       <c r="AB7" t="n">
-        <v>116.8147973994438</v>
+        <v>165.4508818391174</v>
       </c>
       <c r="AC7" t="n">
-        <v>105.6661570862691</v>
+        <v>149.6604818882089</v>
       </c>
       <c r="AD7" t="n">
-        <v>85375.69864748853</v>
+        <v>120922.048775692</v>
       </c>
       <c r="AE7" t="n">
-        <v>116814.7973994438</v>
+        <v>165450.8818391174</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.26621714934475e-06</v>
+        <v>6.175644719813877e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.772135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>105666.1570862691</v>
+        <v>149660.4818882089</v>
       </c>
     </row>
   </sheetData>
@@ -17601,28 +17601,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.16918800897407</v>
+        <v>97.7684554871224</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.9545316150222</v>
+        <v>133.7711140372679</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.74694122933957</v>
+        <v>121.0041866625245</v>
       </c>
       <c r="AD2" t="n">
-        <v>78169.18800897407</v>
+        <v>97768.4554871224</v>
       </c>
       <c r="AE2" t="n">
-        <v>106954.5316150222</v>
+        <v>133771.1140372679</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.530932428100826e-06</v>
+        <v>8.094898274749694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.279947916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>96746.94122933957</v>
+        <v>121004.1866625245</v>
       </c>
     </row>
   </sheetData>
@@ -17898,28 +17898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.3601823597567</v>
+        <v>198.5888651108197</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.9929466938381</v>
+        <v>271.7180463668982</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.6195847638259</v>
+        <v>245.7856573803942</v>
       </c>
       <c r="AD2" t="n">
-        <v>148360.1823597568</v>
+        <v>198588.8651108198</v>
       </c>
       <c r="AE2" t="n">
-        <v>202992.9466938381</v>
+        <v>271718.0463668982</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.172876435647251e-06</v>
+        <v>3.924596799844872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.790364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>183619.5847638259</v>
+        <v>245785.6573803942</v>
       </c>
     </row>
     <row r="3">
@@ -18004,28 +18004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.3816195256829</v>
+        <v>177.0318858838883</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.7080809180278</v>
+        <v>242.2228363618219</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.5071693357377</v>
+        <v>219.1054288214059</v>
       </c>
       <c r="AD3" t="n">
-        <v>139381.6195256829</v>
+        <v>177031.8858838883</v>
       </c>
       <c r="AE3" t="n">
-        <v>190708.0809180278</v>
+        <v>242222.8363618219</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.385489227674754e-06</v>
+        <v>4.308612876188701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.184895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>172507.1693357377</v>
+        <v>219105.4288214059</v>
       </c>
     </row>
     <row r="4">
@@ -18110,28 +18110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.9893125869946</v>
+        <v>158.7248302912206</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.5429151532116</v>
+        <v>217.174315249655</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.7437316719756</v>
+        <v>196.447503408356</v>
       </c>
       <c r="AD4" t="n">
-        <v>120989.3125869946</v>
+        <v>158724.8302912206</v>
       </c>
       <c r="AE4" t="n">
-        <v>165542.9151532116</v>
+        <v>217174.315249655</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.547998130772764e-06</v>
+        <v>4.602132521660289e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.794270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>149743.7316719756</v>
+        <v>196447.503408356</v>
       </c>
     </row>
     <row r="5">
@@ -18216,28 +18216,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.3142382102956</v>
+        <v>155.0497559145216</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.5145162581758</v>
+        <v>212.1459163546191</v>
       </c>
       <c r="AC5" t="n">
-        <v>145.1952361100782</v>
+        <v>191.8990078464586</v>
       </c>
       <c r="AD5" t="n">
-        <v>117314.2382102956</v>
+        <v>155049.7559145216</v>
       </c>
       <c r="AE5" t="n">
-        <v>160514.5162581758</v>
+        <v>212145.9163546191</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.664869419203323e-06</v>
+        <v>4.813222612676758e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>145195.2361100782</v>
+        <v>191899.0078464586</v>
       </c>
     </row>
     <row r="6">
@@ -18322,28 +18322,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.4952295849272</v>
+        <v>152.060155088561</v>
       </c>
       <c r="AB6" t="n">
-        <v>156.6574242910655</v>
+        <v>208.0554126126619</v>
       </c>
       <c r="AC6" t="n">
-        <v>141.7062595868451</v>
+        <v>188.1988960405745</v>
       </c>
       <c r="AD6" t="n">
-        <v>114495.2295849272</v>
+        <v>152060.155088561</v>
       </c>
       <c r="AE6" t="n">
-        <v>156657.4242910655</v>
+        <v>208055.412612662</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.754081547229365e-06</v>
+        <v>4.974355397962849e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>141706.2595868451</v>
+        <v>188198.8960405744</v>
       </c>
     </row>
     <row r="7">
@@ -18428,28 +18428,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.140699705322</v>
+        <v>136.2978010166904</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.0676085183783</v>
+        <v>186.4886643855556</v>
       </c>
       <c r="AC7" t="n">
-        <v>137.5544893896548</v>
+        <v>168.690447995135</v>
       </c>
       <c r="AD7" t="n">
-        <v>111140.699705322</v>
+        <v>136297.8010166904</v>
       </c>
       <c r="AE7" t="n">
-        <v>152067.6085183783</v>
+        <v>186488.6643855556</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.864763531733339e-06</v>
+        <v>5.174266518106863e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>137554.4893896548</v>
+        <v>168690.447995135</v>
       </c>
     </row>
     <row r="8">
@@ -18534,28 +18534,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>110.477434140972</v>
+        <v>135.6345354523404</v>
       </c>
       <c r="AB8" t="n">
-        <v>151.1600993120236</v>
+        <v>185.5811551792009</v>
       </c>
       <c r="AC8" t="n">
-        <v>136.7335915882572</v>
+        <v>167.8695501937373</v>
       </c>
       <c r="AD8" t="n">
-        <v>110477.434140972</v>
+        <v>135634.5354523404</v>
       </c>
       <c r="AE8" t="n">
-        <v>151160.0993120236</v>
+        <v>185581.1551792009</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.886550788412634e-06</v>
+        <v>5.213618133522349e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.110677083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>136733.5915882571</v>
+        <v>167869.5501937373</v>
       </c>
     </row>
     <row r="9">
@@ -18640,28 +18640,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>108.7995689466265</v>
+        <v>133.9566702579948</v>
       </c>
       <c r="AB9" t="n">
-        <v>148.864370130933</v>
+        <v>183.2854259981102</v>
       </c>
       <c r="AC9" t="n">
-        <v>134.6569635781329</v>
+        <v>165.7929221836131</v>
       </c>
       <c r="AD9" t="n">
-        <v>108799.5689466264</v>
+        <v>133956.6702579948</v>
       </c>
       <c r="AE9" t="n">
-        <v>148864.370130933</v>
+        <v>183285.4259981102</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.937357492073717e-06</v>
+        <v>5.305383971343475e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>134656.9635781329</v>
+        <v>165792.9221836131</v>
       </c>
     </row>
     <row r="10">
@@ -18746,28 +18746,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>94.51667158770128</v>
+        <v>132.1668484373556</v>
       </c>
       <c r="AB10" t="n">
-        <v>129.3218798475013</v>
+        <v>180.836512821747</v>
       </c>
       <c r="AC10" t="n">
-        <v>116.9795811392884</v>
+        <v>163.5777298437299</v>
       </c>
       <c r="AD10" t="n">
-        <v>94516.67158770128</v>
+        <v>132166.8484373556</v>
       </c>
       <c r="AE10" t="n">
-        <v>129321.8798475013</v>
+        <v>180836.512821747</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.988005495634118e-06</v>
+        <v>5.396863168885819e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.94140625</v>
       </c>
       <c r="AH10" t="n">
-        <v>116979.5811392884</v>
+        <v>163577.7298437299</v>
       </c>
     </row>
     <row r="11">
@@ -18852,28 +18852,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>94.49673727953207</v>
+        <v>132.1469141291864</v>
       </c>
       <c r="AB11" t="n">
-        <v>129.2946048476246</v>
+        <v>180.8092378218703</v>
       </c>
       <c r="AC11" t="n">
-        <v>116.9549092271192</v>
+        <v>163.5530579315608</v>
       </c>
       <c r="AD11" t="n">
-        <v>94496.73727953207</v>
+        <v>132146.9141291864</v>
       </c>
       <c r="AE11" t="n">
-        <v>129294.6048476246</v>
+        <v>180809.2378218703</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.977644646203902e-06</v>
+        <v>5.378149653542556e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.954427083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>116954.9092271192</v>
+        <v>163553.0579315608</v>
       </c>
     </row>
     <row r="12">
@@ -18958,28 +18958,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>94.46758197452658</v>
+        <v>132.1177588241809</v>
       </c>
       <c r="AB12" t="n">
-        <v>129.2547132730748</v>
+        <v>180.7693462473205</v>
       </c>
       <c r="AC12" t="n">
-        <v>116.9188248484563</v>
+        <v>163.5169735528978</v>
       </c>
       <c r="AD12" t="n">
-        <v>94467.58197452658</v>
+        <v>132117.7588241809</v>
       </c>
       <c r="AE12" t="n">
-        <v>129254.7132730748</v>
+        <v>180769.3462473205</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.978075403620038e-06</v>
+        <v>5.378927677156389e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.954427083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>116918.8248484563</v>
+        <v>163516.9735528978</v>
       </c>
     </row>
   </sheetData>
@@ -19255,28 +19255,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.7331734641456</v>
+        <v>238.7606957652317</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.4965660197253</v>
+        <v>326.682917324326</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.1123323505597</v>
+        <v>295.5047581973436</v>
       </c>
       <c r="AD2" t="n">
-        <v>186733.1734641455</v>
+        <v>238760.6957652317</v>
       </c>
       <c r="AE2" t="n">
-        <v>255496.5660197253</v>
+        <v>326682.917324326</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.822517739431441e-06</v>
+        <v>3.211232185446582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.845052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>231112.3323505597</v>
+        <v>295504.7581973436</v>
       </c>
     </row>
     <row r="3">
@@ -19361,28 +19361,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.8067659560851</v>
+        <v>210.7489474025997</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.2864232410689</v>
+        <v>288.3560074234721</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.5489119704139</v>
+        <v>260.835714785259</v>
       </c>
       <c r="AD3" t="n">
-        <v>158806.7659560851</v>
+        <v>210748.9474025997</v>
       </c>
       <c r="AE3" t="n">
-        <v>217286.423241069</v>
+        <v>288356.0074234721</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.053160577373228e-06</v>
+        <v>3.617619288582524e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.966145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>196548.9119704139</v>
+        <v>260835.714785259</v>
       </c>
     </row>
     <row r="4">
@@ -19467,28 +19467,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.972555785974</v>
+        <v>189.9079461657681</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.5673112653683</v>
+        <v>259.8404300911696</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.8528169973026</v>
+        <v>235.0416241316782</v>
       </c>
       <c r="AD4" t="n">
-        <v>150972.555785974</v>
+        <v>189907.9461657681</v>
       </c>
       <c r="AE4" t="n">
-        <v>206567.3112653682</v>
+        <v>259840.4300911696</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.208877441960784e-06</v>
+        <v>3.891988638499732e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.471354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>186852.8169973026</v>
+        <v>235041.6241316783</v>
       </c>
     </row>
     <row r="5">
@@ -19573,28 +19573,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>145.5719433230957</v>
+        <v>184.5073337028898</v>
       </c>
       <c r="AB5" t="n">
-        <v>199.1779550354555</v>
+        <v>252.4510738612568</v>
       </c>
       <c r="AC5" t="n">
-        <v>180.1686905549437</v>
+        <v>228.3574976893194</v>
       </c>
       <c r="AD5" t="n">
-        <v>145571.9433230957</v>
+        <v>184507.3337028898</v>
       </c>
       <c r="AE5" t="n">
-        <v>199177.9550354555</v>
+        <v>252451.0738612568</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.33219447931366e-06</v>
+        <v>4.10927027630975e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.1328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>180168.6905549437</v>
+        <v>228357.4976893194</v>
       </c>
     </row>
     <row r="6">
@@ -19679,28 +19679,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.5698165123821</v>
+        <v>167.5904582381967</v>
       </c>
       <c r="AB6" t="n">
-        <v>175.9148950521519</v>
+        <v>229.3046585306024</v>
       </c>
       <c r="AC6" t="n">
-        <v>159.1258243665295</v>
+        <v>207.4201437516174</v>
       </c>
       <c r="AD6" t="n">
-        <v>128569.8165123821</v>
+        <v>167590.4582381967</v>
       </c>
       <c r="AE6" t="n">
-        <v>175914.8950521519</v>
+        <v>229304.6585306024</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.430228668431202e-06</v>
+        <v>4.282004146909341e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>159125.8243665295</v>
+        <v>207420.1437516174</v>
       </c>
     </row>
     <row r="7">
@@ -19785,28 +19785,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.6811472386545</v>
+        <v>164.7017889644691</v>
       </c>
       <c r="AB7" t="n">
-        <v>171.9624903127456</v>
+        <v>225.3522537911962</v>
       </c>
       <c r="AC7" t="n">
-        <v>155.550631588216</v>
+        <v>203.8449509733039</v>
       </c>
       <c r="AD7" t="n">
-        <v>125681.1472386545</v>
+        <v>164701.7889644691</v>
       </c>
       <c r="AE7" t="n">
-        <v>171962.4903127456</v>
+        <v>225352.2537911962</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.511678539201503e-06</v>
+        <v>4.425516849616777e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.696614583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>155550.6315882161</v>
+        <v>203844.9509733039</v>
       </c>
     </row>
     <row r="8">
@@ -19891,28 +19891,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>123.2108575768592</v>
+        <v>162.2314993026738</v>
       </c>
       <c r="AB8" t="n">
-        <v>168.5825310159907</v>
+        <v>221.9722944944412</v>
       </c>
       <c r="AC8" t="n">
-        <v>152.4932508629396</v>
+        <v>200.7875702480275</v>
       </c>
       <c r="AD8" t="n">
-        <v>123210.8575768592</v>
+        <v>162231.4993026738</v>
       </c>
       <c r="AE8" t="n">
-        <v>168582.5310159907</v>
+        <v>221972.2944944412</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.580432070892721e-06</v>
+        <v>4.54665890988492e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>152493.2508629396</v>
+        <v>200787.5702480275</v>
       </c>
     </row>
     <row r="9">
@@ -19997,28 +19997,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>119.9163963481142</v>
+        <v>158.7664458733367</v>
       </c>
       <c r="AB9" t="n">
-        <v>164.0749038214524</v>
+        <v>217.231255525056</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.4158252813521</v>
+        <v>196.499009383789</v>
       </c>
       <c r="AD9" t="n">
-        <v>119916.3963481142</v>
+        <v>158766.4458733367</v>
       </c>
       <c r="AE9" t="n">
-        <v>164074.9038214524</v>
+        <v>217231.255525056</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.665067009425074e-06</v>
+        <v>4.695783624968995e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>148415.8252813521</v>
+        <v>196499.009383789</v>
       </c>
     </row>
     <row r="10">
@@ -20103,28 +20103,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.1941728674723</v>
+        <v>159.0442223926948</v>
       </c>
       <c r="AB10" t="n">
-        <v>164.454969909873</v>
+        <v>217.6113216134767</v>
       </c>
       <c r="AC10" t="n">
-        <v>148.7596183957201</v>
+        <v>196.842802498157</v>
       </c>
       <c r="AD10" t="n">
-        <v>120194.1728674723</v>
+        <v>159044.2223926948</v>
       </c>
       <c r="AE10" t="n">
-        <v>164454.969909873</v>
+        <v>217611.3216134767</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.664517859810927e-06</v>
+        <v>4.694816036628195e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>148759.6183957201</v>
+        <v>196842.802498157</v>
       </c>
     </row>
     <row r="11">
@@ -20209,28 +20209,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>118.3145922692862</v>
+        <v>144.3284429283803</v>
       </c>
       <c r="AB11" t="n">
-        <v>161.8832448141924</v>
+        <v>197.4765429360411</v>
       </c>
       <c r="AC11" t="n">
-        <v>146.4333351337315</v>
+        <v>178.62965883835</v>
       </c>
       <c r="AD11" t="n">
-        <v>118314.5922692862</v>
+        <v>144328.4429283803</v>
       </c>
       <c r="AE11" t="n">
-        <v>161883.2448141924</v>
+        <v>197476.5429360411</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.716137923540756e-06</v>
+        <v>4.785769340663381e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.266927083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>146433.3351337315</v>
+        <v>178629.65883835</v>
       </c>
     </row>
     <row r="12">
@@ -20315,28 +20315,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>117.2121121807627</v>
+        <v>143.2259628398568</v>
       </c>
       <c r="AB12" t="n">
-        <v>160.3747829190865</v>
+        <v>195.9680810409352</v>
       </c>
       <c r="AC12" t="n">
-        <v>145.0688387247545</v>
+        <v>177.265162429373</v>
       </c>
       <c r="AD12" t="n">
-        <v>117212.1121807627</v>
+        <v>143225.9628398568</v>
       </c>
       <c r="AE12" t="n">
-        <v>160374.7829190865</v>
+        <v>195968.0810409352</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.74232137714329e-06</v>
+        <v>4.831903952752719e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.21484375</v>
       </c>
       <c r="AH12" t="n">
-        <v>145068.8387247545</v>
+        <v>177265.162429373</v>
       </c>
     </row>
     <row r="13">
@@ -20421,28 +20421,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>115.91621562609</v>
+        <v>141.9300662851842</v>
       </c>
       <c r="AB13" t="n">
-        <v>158.6016800820632</v>
+        <v>194.1949782039119</v>
       </c>
       <c r="AC13" t="n">
-        <v>143.4649583339307</v>
+        <v>175.6612820385492</v>
       </c>
       <c r="AD13" t="n">
-        <v>115916.21562609</v>
+        <v>141930.0662851842</v>
       </c>
       <c r="AE13" t="n">
-        <v>158601.6800820632</v>
+        <v>194194.9782039119</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.769207742251933e-06</v>
+        <v>4.879277077918281e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.162760416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>143464.9583339307</v>
+        <v>175661.2820385492</v>
       </c>
     </row>
     <row r="14">
@@ -20527,28 +20527,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>114.8340370851805</v>
+        <v>140.8478877442747</v>
       </c>
       <c r="AB14" t="n">
-        <v>157.1209956600437</v>
+        <v>192.7142937818925</v>
       </c>
       <c r="AC14" t="n">
-        <v>142.1255883549947</v>
+        <v>174.3219120596133</v>
       </c>
       <c r="AD14" t="n">
-        <v>114834.0370851805</v>
+        <v>140847.8877442747</v>
       </c>
       <c r="AE14" t="n">
-        <v>157120.9956600438</v>
+        <v>192714.2937818925</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.79484204624032e-06</v>
+        <v>4.924444101666817e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH14" t="n">
-        <v>142125.5883549947</v>
+        <v>174321.9120596132</v>
       </c>
     </row>
     <row r="15">
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>113.9561696862299</v>
+        <v>139.970020345324</v>
       </c>
       <c r="AB15" t="n">
-        <v>155.9198587560238</v>
+        <v>191.5131568778725</v>
       </c>
       <c r="AC15" t="n">
-        <v>141.0390862712878</v>
+        <v>173.2354099759063</v>
       </c>
       <c r="AD15" t="n">
-        <v>113956.1696862299</v>
+        <v>139970.020345324</v>
       </c>
       <c r="AE15" t="n">
-        <v>155919.8587560238</v>
+        <v>191513.1568778725</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.820981567873722e-06</v>
+        <v>4.970501306688891e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.071614583333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>141039.0862712878</v>
+        <v>173235.4099759063</v>
       </c>
     </row>
     <row r="16">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>114.0060374951875</v>
+        <v>140.0198881542817</v>
       </c>
       <c r="AB16" t="n">
-        <v>155.9880900922521</v>
+        <v>191.5813882141009</v>
       </c>
       <c r="AC16" t="n">
-        <v>141.1008057045498</v>
+        <v>173.2971294091683</v>
       </c>
       <c r="AD16" t="n">
-        <v>114006.0374951875</v>
+        <v>140019.8881542817</v>
       </c>
       <c r="AE16" t="n">
-        <v>155988.0900922521</v>
+        <v>191581.3882141009</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.81544613976312e-06</v>
+        <v>4.960748016213629e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH16" t="n">
-        <v>141100.8057045498</v>
+        <v>173297.1294091683</v>
       </c>
     </row>
   </sheetData>
@@ -21036,28 +21036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.03113170644751</v>
+        <v>118.1316628518464</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.9751015926054</v>
+        <v>161.6329527149751</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.0020392652054</v>
+        <v>146.2069305611763</v>
       </c>
       <c r="AD2" t="n">
-        <v>84031.13170644752</v>
+        <v>118131.6628518464</v>
       </c>
       <c r="AE2" t="n">
-        <v>114975.1015926054</v>
+        <v>161632.9527149751</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.240179894161308e-06</v>
+        <v>6.35070781348329e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>104002.0392652054</v>
+        <v>146206.9305611763</v>
       </c>
     </row>
     <row r="3">
@@ -21142,28 +21142,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.80447713740445</v>
+        <v>114.9050082828034</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.5602504612899</v>
+        <v>157.2181015836595</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.0085353295788</v>
+        <v>142.2134266255497</v>
       </c>
       <c r="AD3" t="n">
-        <v>80804.47713740445</v>
+        <v>114905.0082828033</v>
       </c>
       <c r="AE3" t="n">
-        <v>110560.2504612899</v>
+        <v>157218.1015836595</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.4057950042682e-06</v>
+        <v>6.675311140502879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.752604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>100008.5353295788</v>
+        <v>142213.4266255496</v>
       </c>
     </row>
     <row r="4">
@@ -21248,28 +21248,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.63603677258233</v>
+        <v>114.7365679179812</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.329782923076</v>
+        <v>156.9876340454456</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.80006328974869</v>
+        <v>142.0049545857195</v>
       </c>
       <c r="AD4" t="n">
-        <v>80636.03677258233</v>
+        <v>114736.5679179812</v>
       </c>
       <c r="AE4" t="n">
-        <v>110329.782923076</v>
+        <v>156987.6340454456</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.41410436986467e-06</v>
+        <v>6.691597382237075e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.74609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>99800.06328974869</v>
+        <v>142004.9545857195</v>
       </c>
     </row>
   </sheetData>
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.9046619878022</v>
+        <v>209.1718850473336</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.8392983131607</v>
+        <v>286.1982011339173</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.5220038777366</v>
+        <v>258.8838464994786</v>
       </c>
       <c r="AD2" t="n">
-        <v>170904.6619878022</v>
+        <v>209171.8850473336</v>
       </c>
       <c r="AE2" t="n">
-        <v>233839.2983131607</v>
+        <v>286198.2011339173</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.020188309700301e-06</v>
+        <v>3.610650923263105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>211522.0038777366</v>
+        <v>258883.8464994786</v>
       </c>
     </row>
     <row r="3">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.6743721172214</v>
+        <v>184.8562543221812</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.6863467473033</v>
+        <v>252.9284824458623</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.5331234788544</v>
+        <v>228.7893430686575</v>
       </c>
       <c r="AD3" t="n">
-        <v>146674.3721172214</v>
+        <v>184856.2543221812</v>
       </c>
       <c r="AE3" t="n">
-        <v>200686.3467473033</v>
+        <v>252928.4824458623</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.24847220647708e-06</v>
+        <v>4.018659156310181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.477864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>181533.1234788544</v>
+        <v>228789.3430686575</v>
       </c>
     </row>
     <row r="4">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.614808707257</v>
+        <v>177.7966909122168</v>
       </c>
       <c r="AB4" t="n">
-        <v>191.027140643838</v>
+        <v>243.269276342397</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.7957784491198</v>
+        <v>220.051998038923</v>
       </c>
       <c r="AD4" t="n">
-        <v>139614.808707257</v>
+        <v>177796.6909122168</v>
       </c>
       <c r="AE4" t="n">
-        <v>191027.140643838</v>
+        <v>243269.276342397</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.422610554866149e-06</v>
+        <v>4.329893898817814e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>172795.7784491198</v>
+        <v>220051.998038923</v>
       </c>
     </row>
     <row r="5">
@@ -21863,28 +21863,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.9341944384567</v>
+        <v>161.201327989437</v>
       </c>
       <c r="AB5" t="n">
-        <v>168.2039883045123</v>
+        <v>220.5627686557206</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.1508357365566</v>
+        <v>199.512567577072</v>
       </c>
       <c r="AD5" t="n">
-        <v>122934.1944384567</v>
+        <v>161201.327989437</v>
       </c>
       <c r="AE5" t="n">
-        <v>168203.9883045123</v>
+        <v>220562.7686557206</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.533318064544822e-06</v>
+        <v>4.527759696829862e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.748697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>152150.8357365566</v>
+        <v>199512.567577072</v>
       </c>
     </row>
     <row r="6">
@@ -21969,28 +21969,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.0093537141101</v>
+        <v>158.2764872650904</v>
       </c>
       <c r="AB6" t="n">
-        <v>164.2020921905974</v>
+        <v>216.5608725418057</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.5308749710559</v>
+        <v>195.8926068115713</v>
       </c>
       <c r="AD6" t="n">
-        <v>120009.3537141101</v>
+        <v>158276.4872650904</v>
       </c>
       <c r="AE6" t="n">
-        <v>164202.0921905974</v>
+        <v>216560.8725418057</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.617534529061905e-06</v>
+        <v>4.678278464759804e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.56640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>148530.8749710559</v>
+        <v>195892.6068115713</v>
       </c>
     </row>
     <row r="7">
@@ -22075,28 +22075,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.1476555092774</v>
+        <v>155.2441968596656</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.2865904575327</v>
+        <v>212.4119590338941</v>
       </c>
       <c r="AC7" t="n">
-        <v>144.9890632279526</v>
+        <v>192.1396597858169</v>
       </c>
       <c r="AD7" t="n">
-        <v>117147.6555092774</v>
+        <v>155244.1968596656</v>
       </c>
       <c r="AE7" t="n">
-        <v>160286.5904575327</v>
+        <v>212411.9590338941</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.708194761320997e-06</v>
+        <v>4.840314077844852e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>144989.0632279525</v>
+        <v>192139.6597858169</v>
       </c>
     </row>
     <row r="8">
@@ -22181,28 +22181,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>114.2689503765471</v>
+        <v>139.7804622524184</v>
       </c>
       <c r="AB8" t="n">
-        <v>156.3478190954258</v>
+        <v>191.2537951324464</v>
       </c>
       <c r="AC8" t="n">
-        <v>141.4262026765436</v>
+        <v>173.0008013514471</v>
       </c>
       <c r="AD8" t="n">
-        <v>114268.9503765471</v>
+        <v>139780.4622524184</v>
       </c>
       <c r="AE8" t="n">
-        <v>156347.8190954258</v>
+        <v>191253.7951324464</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.791449135515488e-06</v>
+        <v>4.989113316810663e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>141426.2026765436</v>
+        <v>173000.8013514471</v>
       </c>
     </row>
     <row r="9">
@@ -22287,28 +22287,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>114.4486065616029</v>
+        <v>139.9601184374742</v>
       </c>
       <c r="AB9" t="n">
-        <v>156.5936326136905</v>
+        <v>191.4996086507111</v>
       </c>
       <c r="AC9" t="n">
-        <v>141.6485560976266</v>
+        <v>173.2231547725301</v>
       </c>
       <c r="AD9" t="n">
-        <v>114448.6065616029</v>
+        <v>139960.1184374742</v>
       </c>
       <c r="AE9" t="n">
-        <v>156593.6326136905</v>
+        <v>191499.6086507111</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.786526812934787e-06</v>
+        <v>4.980315726761622e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.227864583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>141648.5560976266</v>
+        <v>173223.1547725301</v>
       </c>
     </row>
     <row r="10">
@@ -22393,28 +22393,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>112.6238599269038</v>
+        <v>138.1353718027751</v>
       </c>
       <c r="AB10" t="n">
-        <v>154.0969337659565</v>
+        <v>189.0029098029771</v>
       </c>
       <c r="AC10" t="n">
-        <v>139.3901386837807</v>
+        <v>170.9647373586841</v>
       </c>
       <c r="AD10" t="n">
-        <v>112623.8599269038</v>
+        <v>138135.3718027751</v>
       </c>
       <c r="AE10" t="n">
-        <v>154096.9337659565</v>
+        <v>189002.9098029771</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.841567329064443e-06</v>
+        <v>5.078688779128162e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>139390.1386837806</v>
+        <v>170964.7373586841</v>
       </c>
     </row>
     <row r="11">
@@ -22499,28 +22499,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>110.7965867232398</v>
+        <v>136.3080985991111</v>
       </c>
       <c r="AB11" t="n">
-        <v>151.5967779551003</v>
+        <v>186.5027539921209</v>
       </c>
       <c r="AC11" t="n">
-        <v>137.1285942345211</v>
+        <v>168.7031929094246</v>
       </c>
       <c r="AD11" t="n">
-        <v>110796.5867232398</v>
+        <v>136308.0985991111</v>
       </c>
       <c r="AE11" t="n">
-        <v>151596.7779551003</v>
+        <v>186502.7539921209</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.896540722613452e-06</v>
+        <v>5.17694186435767e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>137128.5942345211</v>
+        <v>168703.1929094246</v>
       </c>
     </row>
     <row r="12">
@@ -22605,28 +22605,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>96.7465063916881</v>
+        <v>134.9282990880968</v>
       </c>
       <c r="AB12" t="n">
-        <v>132.3728381996832</v>
+        <v>184.6148514286939</v>
       </c>
       <c r="AC12" t="n">
-        <v>119.739360308386</v>
+        <v>166.9954691169625</v>
       </c>
       <c r="AD12" t="n">
-        <v>96746.5063916881</v>
+        <v>134928.2990880968</v>
       </c>
       <c r="AE12" t="n">
-        <v>132372.8381996832</v>
+        <v>184614.8514286939</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.922830400033105e-06</v>
+        <v>5.223928993028679e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>119739.360308386</v>
+        <v>166995.4691169625</v>
       </c>
     </row>
     <row r="13">
@@ -22711,28 +22711,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>96.91369068063142</v>
+        <v>135.0954833770401</v>
       </c>
       <c r="AB13" t="n">
-        <v>132.6015871194656</v>
+        <v>184.8436003484763</v>
       </c>
       <c r="AC13" t="n">
-        <v>119.9462777523156</v>
+        <v>167.2023865608921</v>
       </c>
       <c r="AD13" t="n">
-        <v>96913.69068063142</v>
+        <v>135095.4833770401</v>
       </c>
       <c r="AE13" t="n">
-        <v>132601.5871194656</v>
+        <v>184843.6003484763</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.915200800033018e-06</v>
+        <v>5.210292728452667e-06</v>
       </c>
       <c r="AG13" t="n">
         <v>5</v>
       </c>
       <c r="AH13" t="n">
-        <v>119946.2777523156</v>
+        <v>167202.3865608921</v>
       </c>
     </row>
   </sheetData>
@@ -23008,28 +23008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.122366993985</v>
+        <v>136.889406591406</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.7283278419736</v>
+        <v>187.2981252326771</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.392852342713</v>
+        <v>169.422655035093</v>
       </c>
       <c r="AD2" t="n">
-        <v>102122.366993985</v>
+        <v>136889.406591406</v>
       </c>
       <c r="AE2" t="n">
-        <v>139728.3278419736</v>
+        <v>187298.1252326772</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.000419291549081e-06</v>
+        <v>5.768915416866918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.286458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>126392.852342713</v>
+        <v>169422.655035093</v>
       </c>
     </row>
     <row r="3">
@@ -23114,28 +23114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.06958921380277</v>
+        <v>120.9218801572444</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.7642090845657</v>
+        <v>165.4506511279185</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.5249582526709</v>
+        <v>149.6602731957631</v>
       </c>
       <c r="AD3" t="n">
-        <v>86069.58921380277</v>
+        <v>120921.8801572444</v>
       </c>
       <c r="AE3" t="n">
-        <v>117764.2090845657</v>
+        <v>165450.6511279185</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.20066662667034e-06</v>
+        <v>6.153931585114231e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>106524.9582526709</v>
+        <v>149660.2731957631</v>
       </c>
     </row>
     <row r="4">
@@ -23220,28 +23220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.11655886856225</v>
+        <v>117.9688498120039</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.7237426877054</v>
+        <v>161.4101847310583</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.8701082978955</v>
+        <v>146.0054232409877</v>
       </c>
       <c r="AD4" t="n">
-        <v>83116.55886856225</v>
+        <v>117968.8498120039</v>
       </c>
       <c r="AE4" t="n">
-        <v>113723.7426877054</v>
+        <v>161410.1847310583</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.337244328275259e-06</v>
+        <v>6.416529952818394e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.752604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>102870.1082978955</v>
+        <v>146005.4232409876</v>
       </c>
     </row>
     <row r="5">
@@ -23326,28 +23326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.26271877063947</v>
+        <v>118.1150097140811</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.9237251138472</v>
+        <v>161.6101671572</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.0510046819634</v>
+        <v>146.1863196250556</v>
       </c>
       <c r="AD5" t="n">
-        <v>83262.71877063946</v>
+        <v>118115.0097140811</v>
       </c>
       <c r="AE5" t="n">
-        <v>113923.7251138472</v>
+        <v>161610.1671572</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.320571269574962e-06</v>
+        <v>6.384472611481673e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.778645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>103051.0046819634</v>
+        <v>146186.3196250556</v>
       </c>
     </row>
   </sheetData>
@@ -23623,28 +23623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.0220912325156</v>
+        <v>152.3006575506238</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.7465437576767</v>
+        <v>208.3844786914759</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.5959964236611</v>
+        <v>188.4965565146736</v>
       </c>
       <c r="AD2" t="n">
-        <v>116022.0912325156</v>
+        <v>152300.6575506238</v>
       </c>
       <c r="AE2" t="n">
-        <v>158746.5437576767</v>
+        <v>208384.4786914759</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.589291071356865e-06</v>
+        <v>4.82365287746877e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.91796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>143595.9964236612</v>
+        <v>188496.5565146736</v>
       </c>
     </row>
     <row r="3">
@@ -23729,28 +23729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.6017564018914</v>
+        <v>146.8803227199996</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.3302025141245</v>
+        <v>200.9681374479237</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.887460379491</v>
+        <v>181.7880204705034</v>
       </c>
       <c r="AD3" t="n">
-        <v>110601.7564018915</v>
+        <v>146880.3227199996</v>
       </c>
       <c r="AE3" t="n">
-        <v>151330.2025141245</v>
+        <v>200968.1374479237</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.779727522925342e-06</v>
+        <v>5.178421542816948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.5078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>136887.4603794909</v>
+        <v>181788.0204705034</v>
       </c>
     </row>
     <row r="4">
@@ -23835,28 +23835,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.2330354361897</v>
+        <v>130.4188358234795</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.3527257544879</v>
+        <v>178.444804846569</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.4804656123508</v>
+        <v>161.414283120919</v>
       </c>
       <c r="AD4" t="n">
-        <v>106233.0354361897</v>
+        <v>130418.8358234795</v>
       </c>
       <c r="AE4" t="n">
-        <v>145352.7257544879</v>
+        <v>178444.804846569</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.948188727920436e-06</v>
+        <v>5.492251990542787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>131480.4656123508</v>
+        <v>161414.283120919</v>
       </c>
     </row>
     <row r="5">
@@ -23941,28 +23941,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.16262335304033</v>
+        <v>127.3558488165769</v>
       </c>
       <c r="AB5" t="n">
-        <v>124.7327230826756</v>
+        <v>174.2538908942771</v>
       </c>
       <c r="AC5" t="n">
-        <v>112.8284070551742</v>
+        <v>157.6233441142478</v>
       </c>
       <c r="AD5" t="n">
-        <v>91162.62335304033</v>
+        <v>127355.8488165769</v>
       </c>
       <c r="AE5" t="n">
-        <v>124732.7230826756</v>
+        <v>174253.8908942771</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.065005750657956e-06</v>
+        <v>5.709873243749322e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>5</v>
       </c>
       <c r="AH5" t="n">
-        <v>112828.4070551742</v>
+        <v>157623.3441142478</v>
       </c>
     </row>
     <row r="6">
@@ -24047,28 +24047,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>90.20577760863424</v>
+        <v>126.3990030721707</v>
       </c>
       <c r="AB6" t="n">
-        <v>123.4235245221248</v>
+        <v>172.9446923337264</v>
       </c>
       <c r="AC6" t="n">
-        <v>111.6441565677703</v>
+        <v>156.4390936268439</v>
       </c>
       <c r="AD6" t="n">
-        <v>90205.77760863423</v>
+        <v>126399.0030721707</v>
       </c>
       <c r="AE6" t="n">
-        <v>123423.5245221248</v>
+        <v>172944.6923337264</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.095804035202451e-06</v>
+        <v>5.76724811191596e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>111644.1565677703</v>
+        <v>156439.0936268439</v>
       </c>
     </row>
     <row r="7">
@@ -24153,28 +24153,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.31062921877682</v>
+        <v>124.5038546823133</v>
       </c>
       <c r="AB7" t="n">
-        <v>120.830498887077</v>
+        <v>170.3516666986786</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.2986056599963</v>
+        <v>154.0935427190699</v>
       </c>
       <c r="AD7" t="n">
-        <v>88310.62921877683</v>
+        <v>124503.8546823133</v>
       </c>
       <c r="AE7" t="n">
-        <v>120830.498887077</v>
+        <v>170351.6666986786</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.163564966820589e-06</v>
+        <v>5.893481588096186e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH7" t="n">
-        <v>109298.6056599963</v>
+        <v>154093.5427190699</v>
       </c>
     </row>
     <row r="8">
@@ -24259,28 +24259,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>88.33990611082969</v>
+        <v>124.5331315743662</v>
       </c>
       <c r="AB8" t="n">
-        <v>120.870556822389</v>
+        <v>170.3917246339906</v>
       </c>
       <c r="AC8" t="n">
-        <v>109.3348405221838</v>
+        <v>154.1297775812574</v>
       </c>
       <c r="AD8" t="n">
-        <v>88339.90611082969</v>
+        <v>124533.1315743662</v>
       </c>
       <c r="AE8" t="n">
-        <v>120870.556822389</v>
+        <v>170391.7246339906</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.161306269099984e-06</v>
+        <v>5.889273805556844e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH8" t="n">
-        <v>109334.8405221838</v>
+        <v>154129.7775812574</v>
       </c>
     </row>
   </sheetData>
@@ -24556,28 +24556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.24386315313474</v>
+        <v>111.5199727658898</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.0567054416976</v>
+        <v>152.5865466521934</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.83936372939895</v>
+        <v>138.023900796313</v>
       </c>
       <c r="AD2" t="n">
-        <v>78243.86315313473</v>
+        <v>111519.9727658898</v>
       </c>
       <c r="AE2" t="n">
-        <v>107056.7054416976</v>
+        <v>152586.5466521934</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.478619016164487e-06</v>
+        <v>6.972882616830438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>96839.36372939896</v>
+        <v>138023.900796313</v>
       </c>
     </row>
     <row r="3">
@@ -24662,28 +24662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.05847017770427</v>
+        <v>111.3345797904593</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.8030425937529</v>
+        <v>152.3328838042487</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.60991010764398</v>
+        <v>137.7944471745581</v>
       </c>
       <c r="AD3" t="n">
-        <v>78058.47017770426</v>
+        <v>111334.5797904593</v>
       </c>
       <c r="AE3" t="n">
-        <v>106803.0425937529</v>
+        <v>152332.8838042487</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.493993115311032e-06</v>
+        <v>7.003699957904647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>96609.91010764398</v>
+        <v>137794.4471745581</v>
       </c>
     </row>
   </sheetData>
@@ -24959,28 +24959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.9729651939839</v>
+        <v>105.823371360028</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2130744352703</v>
+        <v>144.7922052923802</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.55344066463562</v>
+        <v>130.9734404364511</v>
       </c>
       <c r="AD2" t="n">
-        <v>73972.9651939839</v>
+        <v>105823.371360028</v>
       </c>
       <c r="AE2" t="n">
-        <v>101213.0744352703</v>
+        <v>144792.2052923802</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.586129523348712e-06</v>
+        <v>7.502407231915759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.811197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>91553.44066463562</v>
+        <v>130973.4404364511</v>
       </c>
     </row>
   </sheetData>
@@ -42765,28 +42765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.7690246586502</v>
+        <v>203.3563482922094</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.0253192315758</v>
+        <v>278.2411271821862</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.0762361330519</v>
+        <v>251.6861845178746</v>
       </c>
       <c r="AD2" t="n">
-        <v>152769.0246586502</v>
+        <v>203356.3482922094</v>
       </c>
       <c r="AE2" t="n">
-        <v>209025.3192315758</v>
+        <v>278241.1271821862</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.101842585353226e-06</v>
+        <v>3.775971473102234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.97265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>189076.2361330519</v>
+        <v>251686.1845178746</v>
       </c>
     </row>
     <row r="3">
@@ -42871,28 +42871,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.6182726781718</v>
+        <v>180.5375196982494</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.1366125523203</v>
+        <v>247.0193992042771</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.5130481263379</v>
+        <v>223.4442144381969</v>
       </c>
       <c r="AD3" t="n">
-        <v>142618.2726781718</v>
+        <v>180537.5196982494</v>
       </c>
       <c r="AE3" t="n">
-        <v>195136.6125523204</v>
+        <v>247019.3992042771</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.324520975229931e-06</v>
+        <v>4.176014394351483e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.30859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>176513.0481263379</v>
+        <v>223444.2144381969</v>
       </c>
     </row>
     <row r="4">
@@ -42977,28 +42977,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.8516862927241</v>
+        <v>161.8561846588223</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.4593411364043</v>
+        <v>221.4587724410103</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.286379456072</v>
+        <v>200.3230580186431</v>
       </c>
       <c r="AD4" t="n">
-        <v>123851.6862927241</v>
+        <v>161856.1846588223</v>
       </c>
       <c r="AE4" t="n">
-        <v>169459.3411364043</v>
+        <v>221458.7724410103</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.484210746934596e-06</v>
+        <v>4.462897925356582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.904947916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>153286.379456072</v>
+        <v>200323.0580186431</v>
       </c>
     </row>
     <row r="5">
@@ -43083,28 +43083,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.0044815071905</v>
+        <v>158.0089798732886</v>
       </c>
       <c r="AB5" t="n">
-        <v>164.1954258221434</v>
+        <v>216.1948571267494</v>
       </c>
       <c r="AC5" t="n">
-        <v>148.5248448314509</v>
+        <v>195.5615233940221</v>
       </c>
       <c r="AD5" t="n">
-        <v>120004.4815071905</v>
+        <v>158008.9798732886</v>
       </c>
       <c r="AE5" t="n">
-        <v>164195.4258221434</v>
+        <v>216194.8571267494</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.600144034867978e-06</v>
+        <v>4.671172698676883e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.638020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>148524.8448314509</v>
+        <v>195561.5233940221</v>
       </c>
     </row>
     <row r="6">
@@ -43189,28 +43189,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.1898317534457</v>
+        <v>155.0237379189517</v>
       </c>
       <c r="AB6" t="n">
-        <v>160.3442978554883</v>
+        <v>212.1103173852474</v>
       </c>
       <c r="AC6" t="n">
-        <v>145.0412631128401</v>
+        <v>191.8668063927603</v>
       </c>
       <c r="AD6" t="n">
-        <v>117189.8317534457</v>
+        <v>155023.7379189517</v>
       </c>
       <c r="AE6" t="n">
-        <v>160344.2978554883</v>
+        <v>212110.3173852474</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.685922957505556e-06</v>
+        <v>4.825274993078015e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>145041.2631128402</v>
+        <v>191866.8063927603</v>
       </c>
     </row>
     <row r="7">
@@ -43295,28 +43295,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>114.2743599603319</v>
+        <v>139.6107817129484</v>
       </c>
       <c r="AB7" t="n">
-        <v>156.3552207266141</v>
+        <v>191.0216307325665</v>
       </c>
       <c r="AC7" t="n">
-        <v>141.4328979064395</v>
+        <v>172.7907943960468</v>
       </c>
       <c r="AD7" t="n">
-        <v>114274.3599603319</v>
+        <v>139610.7817129483</v>
       </c>
       <c r="AE7" t="n">
-        <v>156355.2207266141</v>
+        <v>191021.6307325665</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.781498107853123e-06</v>
+        <v>4.996976263080221e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>141432.8979064395</v>
+        <v>172790.7943960468</v>
       </c>
     </row>
     <row r="8">
@@ -43401,28 +43401,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>113.4982670665457</v>
+        <v>138.8346888191622</v>
       </c>
       <c r="AB8" t="n">
-        <v>155.2933361905344</v>
+        <v>189.9597461964868</v>
       </c>
       <c r="AC8" t="n">
-        <v>140.4723581401186</v>
+        <v>171.8302546297259</v>
       </c>
       <c r="AD8" t="n">
-        <v>113498.2670665457</v>
+        <v>138834.6888191622</v>
       </c>
       <c r="AE8" t="n">
-        <v>155293.3361905344</v>
+        <v>189959.7461964868</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.806247657860657e-06</v>
+        <v>5.041438962357418e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>140472.3581401186</v>
+        <v>171830.2546297259</v>
       </c>
     </row>
     <row r="9">
@@ -43507,28 +43507,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>111.610086526903</v>
+        <v>136.9465082795195</v>
       </c>
       <c r="AB9" t="n">
-        <v>152.7098442755502</v>
+        <v>187.3762542815025</v>
       </c>
       <c r="AC9" t="n">
-        <v>138.135431067546</v>
+        <v>169.4933275571533</v>
       </c>
       <c r="AD9" t="n">
-        <v>111610.086526903</v>
+        <v>136946.5082795195</v>
       </c>
       <c r="AE9" t="n">
-        <v>152709.8442755502</v>
+        <v>187376.2542815025</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.861714574756523e-06</v>
+        <v>5.141085575933156e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>138135.431067546</v>
+        <v>169493.3275571533</v>
       </c>
     </row>
     <row r="10">
@@ -43613,28 +43613,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>109.8460876979661</v>
+        <v>135.1825094505826</v>
       </c>
       <c r="AB10" t="n">
-        <v>150.296263255664</v>
+        <v>184.9626732616164</v>
       </c>
       <c r="AC10" t="n">
-        <v>135.9521988327147</v>
+        <v>167.3100953223221</v>
       </c>
       <c r="AD10" t="n">
-        <v>109846.0876979661</v>
+        <v>135182.5094505826</v>
       </c>
       <c r="AE10" t="n">
-        <v>150296.263255664</v>
+        <v>184962.6732616164</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.915537527002208e-06</v>
+        <v>5.237778798201128e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>135952.1988327148</v>
+        <v>167310.0953223221</v>
       </c>
     </row>
     <row r="11">
@@ -43719,28 +43719,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>95.94168609671496</v>
+        <v>133.8608436082415</v>
       </c>
       <c r="AB11" t="n">
-        <v>131.271647565936</v>
+        <v>183.1543117483444</v>
       </c>
       <c r="AC11" t="n">
-        <v>118.7432657631925</v>
+        <v>165.6743212938248</v>
       </c>
       <c r="AD11" t="n">
-        <v>95941.68609671496</v>
+        <v>133860.8436082415</v>
       </c>
       <c r="AE11" t="n">
-        <v>131271.647565936</v>
+        <v>183154.3117483444</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.93846295184995e-06</v>
+        <v>5.278964446849159e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>118743.2657631925</v>
+        <v>165674.3212938248</v>
       </c>
     </row>
     <row r="12">
@@ -43825,28 +43825,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>95.27816478682483</v>
+        <v>133.1973222983514</v>
       </c>
       <c r="AB12" t="n">
-        <v>130.3637884372505</v>
+        <v>182.2464526196589</v>
       </c>
       <c r="AC12" t="n">
-        <v>117.9220514355602</v>
+        <v>164.8531069661925</v>
       </c>
       <c r="AD12" t="n">
-        <v>95278.16478682483</v>
+        <v>133197.3222983514</v>
       </c>
       <c r="AE12" t="n">
-        <v>130363.7884372506</v>
+        <v>182246.4526196589</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.96370794325891e-06</v>
+        <v>5.324317209260203e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>117922.0514355602</v>
+        <v>164853.1069661925</v>
       </c>
     </row>
   </sheetData>
@@ -44122,28 +44122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.30071220273652</v>
+        <v>102.0115269568465</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.55678000116592</v>
+        <v>139.5766716132434</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.24609783967948</v>
+        <v>126.255669971602</v>
       </c>
       <c r="AD2" t="n">
-        <v>71300.71220273653</v>
+        <v>102011.5269568465</v>
       </c>
       <c r="AE2" t="n">
-        <v>97556.78000116591</v>
+        <v>139576.6716132434</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.597368403989678e-06</v>
+        <v>7.820160061313595e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>88246.09783967948</v>
+        <v>126255.669971602</v>
       </c>
     </row>
   </sheetData>
@@ -44419,28 +44419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.71759263162957</v>
+        <v>105.2547246547509</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.9683947798721</v>
+        <v>144.0141577832984</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.95035850617499</v>
+        <v>130.2696486896393</v>
       </c>
       <c r="AD2" t="n">
-        <v>76717.59263162957</v>
+        <v>105254.7246547509</v>
       </c>
       <c r="AE2" t="n">
-        <v>104968.3947798721</v>
+        <v>144014.1577832984</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.364091850817791e-06</v>
+        <v>8.001583174938335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.696614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>94950.35850617499</v>
+        <v>130269.6486896393</v>
       </c>
     </row>
   </sheetData>
@@ -44716,28 +44716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.99886033411269</v>
+        <v>122.0454624449706</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.45460823055</v>
+        <v>166.9879859829369</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.5270105327992</v>
+        <v>151.050886969882</v>
       </c>
       <c r="AD2" t="n">
-        <v>98998.86033411269</v>
+        <v>122045.4624449706</v>
       </c>
       <c r="AE2" t="n">
-        <v>135454.60823055</v>
+        <v>166987.9859829369</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.107503927326426e-06</v>
+        <v>6.030354362210385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>122527.0105327992</v>
+        <v>151050.8869698819</v>
       </c>
     </row>
     <row r="3">
@@ -44822,28 +44822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.10675918124171</v>
+        <v>117.5911872301303</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.7103343231818</v>
+        <v>160.8934501252419</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.8579796088632</v>
+        <v>145.5380050607087</v>
       </c>
       <c r="AD3" t="n">
-        <v>83106.75918124171</v>
+        <v>117591.1872301303</v>
       </c>
       <c r="AE3" t="n">
-        <v>113710.3343231818</v>
+        <v>160893.4501252419</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.31881015684278e-06</v>
+        <v>6.44041062367503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.830729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>102857.9796088632</v>
+        <v>145538.0050607087</v>
       </c>
     </row>
     <row r="4">
@@ -44928,28 +44928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.96345408730321</v>
+        <v>116.4478821361919</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.146013854595</v>
+        <v>159.3291296566551</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.4429556902603</v>
+        <v>144.1229811421057</v>
       </c>
       <c r="AD4" t="n">
-        <v>81963.45408730321</v>
+        <v>116447.8821361919</v>
       </c>
       <c r="AE4" t="n">
-        <v>112146.013854595</v>
+        <v>159329.1296566551</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.370042623768509e-06</v>
+        <v>6.539831231866562e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.759114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>101442.9556902603</v>
+        <v>144122.9811421057</v>
       </c>
     </row>
     <row r="5">
@@ -45034,28 +45034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.00462735407139</v>
+        <v>116.48905540296</v>
       </c>
       <c r="AB5" t="n">
-        <v>112.2023489346235</v>
+        <v>159.3854647366836</v>
       </c>
       <c r="AC5" t="n">
-        <v>101.4939142293177</v>
+        <v>144.1739396811631</v>
       </c>
       <c r="AD5" t="n">
-        <v>82004.62735407139</v>
+        <v>116489.05540296</v>
       </c>
       <c r="AE5" t="n">
-        <v>112202.3489346235</v>
+        <v>159385.4647366836</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.368639331786401e-06</v>
+        <v>6.537108034044882e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.759114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>101493.9142293177</v>
+        <v>144173.9396811631</v>
       </c>
     </row>
   </sheetData>
@@ -45331,28 +45331,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.619973877763</v>
+        <v>148.5804659901359</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.0916167020816</v>
+        <v>203.2943484751505</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.3853290730195</v>
+        <v>183.8922211821501</v>
       </c>
       <c r="AD2" t="n">
-        <v>112619.973877763</v>
+        <v>148580.4659901359</v>
       </c>
       <c r="AE2" t="n">
-        <v>154091.6167020816</v>
+        <v>203294.3484751505</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.679224043426937e-06</v>
+        <v>5.027275175490765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.76171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>139385.3290730195</v>
+        <v>183892.2211821501</v>
       </c>
     </row>
     <row r="3">
@@ -45437,28 +45437,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.1425315943066</v>
+        <v>142.9324315060873</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.5971385221615</v>
+        <v>195.5664585203835</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.6061133720223</v>
+        <v>176.9018701985019</v>
       </c>
       <c r="AD3" t="n">
-        <v>107142.5315943066</v>
+        <v>142932.4315060873</v>
       </c>
       <c r="AE3" t="n">
-        <v>146597.1385221615</v>
+        <v>195566.4585203835</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.883675783436617e-06</v>
+        <v>5.410906831700404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>132606.1133720223</v>
+        <v>176901.8701985019</v>
       </c>
     </row>
     <row r="4">
@@ -45543,28 +45543,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.5080748139782</v>
+        <v>127.4818257307778</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.6243144144017</v>
+        <v>174.4262580659961</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.1078886177031</v>
+        <v>157.7792608050168</v>
       </c>
       <c r="AD4" t="n">
-        <v>103508.0748139782</v>
+        <v>127481.8257307778</v>
       </c>
       <c r="AE4" t="n">
-        <v>141624.3144144017</v>
+        <v>174426.2580659961</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.029529728386667e-06</v>
+        <v>5.6845860406093e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.09765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>128107.8886177031</v>
+        <v>157779.2608050168</v>
       </c>
     </row>
     <row r="5">
@@ -45649,28 +45649,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.54010086224757</v>
+        <v>123.4152521200489</v>
       </c>
       <c r="AB5" t="n">
-        <v>119.7762279963622</v>
+        <v>168.8621926472335</v>
       </c>
       <c r="AC5" t="n">
-        <v>108.3449529034125</v>
+        <v>152.7462219806043</v>
       </c>
       <c r="AD5" t="n">
-        <v>87540.10086224756</v>
+        <v>123415.2521200489</v>
       </c>
       <c r="AE5" t="n">
-        <v>119776.2279963622</v>
+        <v>168862.1926472335</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.193579830749969e-06</v>
+        <v>5.99240837789053e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.837239583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>108344.9529034125</v>
+        <v>152746.2219806043</v>
       </c>
     </row>
     <row r="6">
@@ -45755,28 +45755,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.21215297449817</v>
+        <v>123.0873042322995</v>
       </c>
       <c r="AB6" t="n">
-        <v>119.327515228304</v>
+        <v>168.4134798791753</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.9390646521653</v>
+        <v>152.3403337293571</v>
       </c>
       <c r="AD6" t="n">
-        <v>87212.15297449817</v>
+        <v>123087.3042322995</v>
       </c>
       <c r="AE6" t="n">
-        <v>119327.515228304</v>
+        <v>168413.4798791753</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.195596354061738e-06</v>
+        <v>5.996192166562824e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.830729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>107939.0646521653</v>
+        <v>152340.3337293571</v>
       </c>
     </row>
     <row r="7">
@@ -45861,28 +45861,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>87.01668533080554</v>
+        <v>122.8918365886068</v>
       </c>
       <c r="AB7" t="n">
-        <v>119.0600677747801</v>
+        <v>168.1460324256514</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.6971420082407</v>
+        <v>152.0984110854325</v>
       </c>
       <c r="AD7" t="n">
-        <v>87016.68533080554</v>
+        <v>122891.8365886068</v>
       </c>
       <c r="AE7" t="n">
-        <v>119060.0677747801</v>
+        <v>168146.0324256514</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.198585553323889e-06</v>
+        <v>6.001801076829987e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.830729166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>107697.1420082407</v>
+        <v>152098.4110854325</v>
       </c>
     </row>
   </sheetData>
@@ -46158,28 +46158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.2498518035197</v>
+        <v>177.3413607374879</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.8960346242683</v>
+        <v>242.6462735095837</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.5817464075585</v>
+        <v>219.4884537220831</v>
       </c>
       <c r="AD2" t="n">
-        <v>140249.8518035197</v>
+        <v>177341.3607374879</v>
       </c>
       <c r="AE2" t="n">
-        <v>191896.0346242683</v>
+        <v>242646.2735095837</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.320909160786649e-06</v>
+        <v>4.240380543836008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.451822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>173581.7464075585</v>
+        <v>219488.4537220831</v>
       </c>
     </row>
     <row r="3">
@@ -46264,28 +46264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.4835869191008</v>
+        <v>156.6603471990895</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.4827148664721</v>
+        <v>214.3495984044366</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.8801540090925</v>
+        <v>193.8923735743294</v>
       </c>
       <c r="AD3" t="n">
-        <v>119483.5869191008</v>
+        <v>156660.3471990895</v>
       </c>
       <c r="AE3" t="n">
-        <v>163482.7148664721</v>
+        <v>214349.5984044366</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.551569943226185e-06</v>
+        <v>4.661805695069022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.865885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>147880.1540090925</v>
+        <v>193892.3735743294</v>
       </c>
     </row>
     <row r="4">
@@ -46370,28 +46370,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.8943938479842</v>
+        <v>152.071154127973</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.2035784456642</v>
+        <v>208.0704619836287</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.2002895554612</v>
+        <v>188.2125091206981</v>
       </c>
       <c r="AD4" t="n">
-        <v>114894.3938479842</v>
+        <v>152071.154127973</v>
       </c>
       <c r="AE4" t="n">
-        <v>157203.5784456642</v>
+        <v>208070.4619836287</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.702078862868251e-06</v>
+        <v>4.936790647219272e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>142200.2895554612</v>
+        <v>188212.5091206981</v>
       </c>
     </row>
     <row r="5">
@@ -46476,28 +46476,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.765124285811</v>
+        <v>148.7712923652076</v>
       </c>
       <c r="AB5" t="n">
-        <v>152.9219737770712</v>
+        <v>203.5554455401889</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.3273152271675</v>
+        <v>184.1283995097534</v>
       </c>
       <c r="AD5" t="n">
-        <v>111765.124285811</v>
+        <v>148771.2923652076</v>
       </c>
       <c r="AE5" t="n">
-        <v>152921.9737770712</v>
+        <v>203555.4455401889</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.807476493121723e-06</v>
+        <v>5.129355728285075e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.332031249999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>138327.3152271675</v>
+        <v>184128.3995097534</v>
       </c>
     </row>
     <row r="6">
@@ -46582,28 +46582,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.0245485226244</v>
+        <v>133.8091448845012</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.1721971122116</v>
+        <v>183.0835752737363</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.9354119843563</v>
+        <v>165.6103358090741</v>
       </c>
       <c r="AD6" t="n">
-        <v>109024.5485226244</v>
+        <v>133809.1448845012</v>
       </c>
       <c r="AE6" t="n">
-        <v>149172.1971122116</v>
+        <v>183083.5752737363</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.902987347413373e-06</v>
+        <v>5.303857330978648e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH6" t="n">
-        <v>134935.4119843563</v>
+        <v>165610.3358090741</v>
       </c>
     </row>
     <row r="7">
@@ -46688,28 +46688,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.909781175428</v>
+        <v>132.6943775373049</v>
       </c>
       <c r="AB7" t="n">
-        <v>147.6469232477139</v>
+        <v>181.5583014092387</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.5557081167505</v>
+        <v>164.2306319414683</v>
       </c>
       <c r="AD7" t="n">
-        <v>107909.781175428</v>
+        <v>132694.3775373049</v>
       </c>
       <c r="AE7" t="n">
-        <v>147646.9232477139</v>
+        <v>181558.3014092387</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.944810708982105e-06</v>
+        <v>5.380270045302098e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.084635416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>133555.7081167505</v>
+        <v>164230.6319414683</v>
       </c>
     </row>
     <row r="8">
@@ -46794,28 +46794,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>92.72943802338419</v>
+        <v>129.8208574488013</v>
       </c>
       <c r="AB8" t="n">
-        <v>126.8765080376238</v>
+        <v>177.6266244533907</v>
       </c>
       <c r="AC8" t="n">
-        <v>114.7675921828439</v>
+        <v>160.674188716142</v>
       </c>
       <c r="AD8" t="n">
-        <v>92729.43802338419</v>
+        <v>129820.8574488013</v>
       </c>
       <c r="AE8" t="n">
-        <v>126876.5080376238</v>
+        <v>177626.6244533907</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.034412490198898e-06</v>
+        <v>5.543975569061574e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.934895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>114767.5921828439</v>
+        <v>160674.188716142</v>
       </c>
     </row>
     <row r="9">
@@ -46900,28 +46900,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>91.83857022330616</v>
+        <v>128.9299896487233</v>
       </c>
       <c r="AB9" t="n">
-        <v>125.6575834112441</v>
+        <v>176.4076998270111</v>
       </c>
       <c r="AC9" t="n">
-        <v>113.665000012034</v>
+        <v>159.5715965453321</v>
       </c>
       <c r="AD9" t="n">
-        <v>91838.57022330616</v>
+        <v>128929.9896487233</v>
       </c>
       <c r="AE9" t="n">
-        <v>125657.5834112441</v>
+        <v>176407.6998270111</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.058186737511745e-06</v>
+        <v>5.587411933333398e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>113665.000012034</v>
+        <v>159571.5965453321</v>
       </c>
     </row>
     <row r="10">
@@ -47006,28 +47006,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>91.95018051496358</v>
+        <v>129.0415999403807</v>
       </c>
       <c r="AB10" t="n">
-        <v>125.8102935361883</v>
+        <v>176.5604099519552</v>
       </c>
       <c r="AC10" t="n">
-        <v>113.8031356969836</v>
+        <v>159.7097322302817</v>
       </c>
       <c r="AD10" t="n">
-        <v>91950.18051496358</v>
+        <v>129041.5999403807</v>
       </c>
       <c r="AE10" t="n">
-        <v>125810.2935361883</v>
+        <v>176560.4099519552</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.054025094606885e-06</v>
+        <v>5.579808469181366e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.90234375</v>
       </c>
       <c r="AH10" t="n">
-        <v>113803.1356969836</v>
+        <v>159709.7322302817</v>
       </c>
     </row>
   </sheetData>
